--- a/QuestionariUtenti.xlsx
+++ b/QuestionariUtenti.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ALDO\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ALDO\Desktop\ITERAZIONE UOMO MACCHINA\EcoCoin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74DAA472-B4FA-42F5-9DD7-2CE3AF23E35E}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ADF9BAA-71A6-4EFF-8313-BFC99E42C568}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12315" tabRatio="500" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12315" tabRatio="500" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BEHAVIOURABILITY" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="705" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="745" uniqueCount="135">
   <si>
     <t>TASK T2&lt;breve descriz.&gt;</t>
   </si>
@@ -512,6 +512,27 @@
   <si>
     <t>T7_MOT1</t>
   </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>T5_MOT1</t>
+  </si>
+  <si>
+    <t>T6_MOT2</t>
+  </si>
+  <si>
+    <t>T6</t>
+  </si>
+  <si>
+    <t>T1_MOT2</t>
+  </si>
+  <si>
+    <t>T2_MOT2</t>
+  </si>
+  <si>
+    <t>T4_MOT2</t>
+  </si>
 </sst>
 </file>
 
@@ -520,7 +541,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -605,6 +626,19 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -638,7 +672,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -698,11 +732,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
@@ -795,6 +844,30 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="13" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -1247,8 +1320,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M88"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScale="75" workbookViewId="0">
-      <selection sqref="A1:I69"/>
+    <sheetView topLeftCell="A41" zoomScale="75" workbookViewId="0">
+      <selection activeCell="B72" sqref="B72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1293,12 +1366,12 @@
       <c r="B2" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="F2" t="s">
-        <v>44</v>
+      <c r="D2" t="s">
+        <v>128</v>
       </c>
       <c r="H2">
         <f>IF(C2="X",1)+IF(D2="X",2)+IF(E2="X",3)+IF(F2="X",4)+IF(G2="X",5)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.3">
@@ -1308,12 +1381,12 @@
       <c r="B3" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="G3" t="s">
-        <v>44</v>
+      <c r="E3" t="s">
+        <v>128</v>
       </c>
       <c r="H3">
         <f t="shared" ref="H3:H26" si="0">IF(C3="X",1)+IF(D3="X",2)+IF(E3="X",3)+IF(F3="X",4)+IF(G3="X",5)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.3">
@@ -1324,7 +1397,7 @@
         <v>79</v>
       </c>
       <c r="F4" t="s">
-        <v>44</v>
+        <v>128</v>
       </c>
       <c r="H4">
         <f t="shared" si="0"/>
@@ -1337,34 +1410,34 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>31</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="C6" t="s">
-        <v>44</v>
+      <c r="E6" t="s">
+        <v>128</v>
       </c>
       <c r="H6">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>32</v>
       </c>
       <c r="B7" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="C7" t="s">
-        <v>44</v>
+      <c r="F7" t="s">
+        <v>128</v>
       </c>
       <c r="H7">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -1374,12 +1447,12 @@
       <c r="B8" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="D8" t="s">
-        <v>44</v>
+      <c r="C8" t="s">
+        <v>128</v>
       </c>
       <c r="H8">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.3">
@@ -1388,19 +1461,22 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>35</v>
       </c>
       <c r="B10" s="7" t="s">
         <v>84</v>
       </c>
+      <c r="E10" t="s">
+        <v>128</v>
+      </c>
       <c r="H10">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>36</v>
       </c>
@@ -1408,9 +1484,12 @@
         <v>83</v>
       </c>
       <c r="C11" s="17"/>
+      <c r="E11" t="s">
+        <v>128</v>
+      </c>
       <c r="H11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.3">
@@ -1426,22 +1505,28 @@
       <c r="B13" s="7" t="s">
         <v>86</v>
       </c>
+      <c r="E13" t="s">
+        <v>128</v>
+      </c>
       <c r="H13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I13" s="6"/>
     </row>
     <row r="14" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
-        <v>38</v>
+        <v>132</v>
       </c>
       <c r="B14" s="7" t="s">
         <v>85</v>
       </c>
+      <c r="F14" t="s">
+        <v>128</v>
+      </c>
       <c r="H14">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.3">
@@ -1464,9 +1549,12 @@
       <c r="B16" s="18" t="s">
         <v>87</v>
       </c>
+      <c r="D16" t="s">
+        <v>128</v>
+      </c>
       <c r="H16">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -1476,9 +1564,12 @@
       <c r="B17" s="18" t="s">
         <v>88</v>
       </c>
+      <c r="D17" t="s">
+        <v>128</v>
+      </c>
       <c r="H17">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:13" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -1488,9 +1579,12 @@
       <c r="B18" s="7" t="s">
         <v>89</v>
       </c>
+      <c r="G18" t="s">
+        <v>128</v>
+      </c>
       <c r="H18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:13" ht="21" thickBot="1" x14ac:dyDescent="0.3">
@@ -1510,9 +1604,12 @@
       <c r="B20" s="7" t="s">
         <v>91</v>
       </c>
+      <c r="D20" t="s">
+        <v>128</v>
+      </c>
       <c r="H20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:13" ht="21" thickBot="1" x14ac:dyDescent="0.3">
@@ -1522,9 +1619,12 @@
       <c r="B21" s="19" t="s">
         <v>90</v>
       </c>
+      <c r="D21" t="s">
+        <v>128</v>
+      </c>
       <c r="H21">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:13" ht="21" thickBot="1" x14ac:dyDescent="0.3">
@@ -1540,9 +1640,12 @@
       <c r="B23" s="7" t="s">
         <v>94</v>
       </c>
+      <c r="E23" t="s">
+        <v>128</v>
+      </c>
       <c r="H23">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:13" ht="21" thickBot="1" x14ac:dyDescent="0.3">
@@ -1551,29 +1654,35 @@
         <v>37</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
         <v>42</v>
       </c>
       <c r="B25" s="7" t="s">
         <v>92</v>
       </c>
+      <c r="F25" t="s">
+        <v>128</v>
+      </c>
       <c r="H25">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I25" s="6"/>
     </row>
     <row r="26" spans="1:13" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
-        <v>42</v>
+        <v>133</v>
       </c>
       <c r="B26" s="7" t="s">
         <v>93</v>
       </c>
+      <c r="E26" t="s">
+        <v>128</v>
+      </c>
       <c r="H26">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:13" ht="21" thickBot="1" x14ac:dyDescent="0.3">
@@ -1596,9 +1705,12 @@
       <c r="B28" s="18" t="s">
         <v>95</v>
       </c>
+      <c r="G28" t="s">
+        <v>128</v>
+      </c>
       <c r="H28">
         <f t="shared" ref="H28:H30" si="1">IF(C28="X",1)+IF(D28="X",2)+IF(E28="X",3)+IF(F28="X",4)+IF(G28="X",5)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="29" spans="1:13" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -1608,9 +1720,12 @@
       <c r="B29" s="18" t="s">
         <v>97</v>
       </c>
+      <c r="G29" t="s">
+        <v>128</v>
+      </c>
       <c r="H29">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="30" spans="1:13" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -1620,9 +1735,12 @@
       <c r="B30" s="7" t="s">
         <v>96</v>
       </c>
+      <c r="C30" t="s">
+        <v>128</v>
+      </c>
       <c r="H30">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:13" ht="21" thickBot="1" x14ac:dyDescent="0.3">
@@ -1638,9 +1756,12 @@
       <c r="B32" s="18" t="s">
         <v>99</v>
       </c>
+      <c r="E32" t="s">
+        <v>128</v>
+      </c>
       <c r="H32">
         <f t="shared" ref="H32:H33" si="2">IF(C32="X",1)+IF(D32="X",2)+IF(E32="X",3)+IF(F32="X",4)+IF(G32="X",5)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="33" spans="1:13" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -1650,9 +1771,12 @@
       <c r="B33" s="18" t="s">
         <v>98</v>
       </c>
+      <c r="G33" t="s">
+        <v>128</v>
+      </c>
       <c r="H33">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="34" spans="1:13" ht="21" thickBot="1" x14ac:dyDescent="0.3">
@@ -1668,9 +1792,12 @@
       <c r="B35" s="7" t="s">
         <v>100</v>
       </c>
+      <c r="F35" t="s">
+        <v>128</v>
+      </c>
       <c r="H35">
         <f t="shared" ref="H35" si="3">IF(C35="X",1)+IF(D35="X",2)+IF(E35="X",3)+IF(F35="X",4)+IF(G35="X",5)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="36" spans="1:13" ht="21" thickBot="1" x14ac:dyDescent="0.3">
@@ -1686,9 +1813,12 @@
       <c r="B37" s="7" t="s">
         <v>101</v>
       </c>
+      <c r="G37" t="s">
+        <v>128</v>
+      </c>
       <c r="H37">
         <f t="shared" ref="H37" si="4">IF(C37="X",1)+IF(D37="X",2)+IF(E37="X",3)+IF(F37="X",4)+IF(G37="X",5)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J37" s="20"/>
       <c r="K37" s="20"/>
@@ -1719,9 +1849,12 @@
       <c r="B39" s="18" t="s">
         <v>103</v>
       </c>
+      <c r="E39" t="s">
+        <v>128</v>
+      </c>
       <c r="H39">
         <f t="shared" ref="H39:H40" si="5">IF(C39="X",1)+IF(D39="X",2)+IF(E39="X",3)+IF(F39="X",4)+IF(G39="X",5)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="40" spans="1:13" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -1731,9 +1864,12 @@
       <c r="B40" s="7" t="s">
         <v>102</v>
       </c>
+      <c r="D40" t="s">
+        <v>128</v>
+      </c>
       <c r="H40">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:13" ht="21" thickBot="1" x14ac:dyDescent="0.3">
@@ -1749,9 +1885,12 @@
       <c r="B42" s="7" t="s">
         <v>105</v>
       </c>
+      <c r="D42" t="s">
+        <v>128</v>
+      </c>
       <c r="H42">
         <f t="shared" ref="H42:H43" si="6">IF(C42="X",1)+IF(D42="X",2)+IF(E42="X",3)+IF(F42="X",4)+IF(G42="X",5)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:13" ht="21" thickBot="1" x14ac:dyDescent="0.3">
@@ -1761,9 +1900,12 @@
       <c r="B43" s="19" t="s">
         <v>106</v>
       </c>
+      <c r="G43" t="s">
+        <v>128</v>
+      </c>
       <c r="H43">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="44" spans="1:13" ht="21" thickBot="1" x14ac:dyDescent="0.3">
@@ -1779,9 +1921,12 @@
       <c r="B45" s="19" t="s">
         <v>107</v>
       </c>
+      <c r="D45" t="s">
+        <v>128</v>
+      </c>
       <c r="H45">
         <f t="shared" ref="H45" si="7">IF(C45="X",1)+IF(D45="X",2)+IF(E45="X",3)+IF(F45="X",4)+IF(G45="X",5)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:13" ht="21" thickBot="1" x14ac:dyDescent="0.3">
@@ -1790,32 +1935,34 @@
         <v>37</v>
       </c>
     </row>
-    <row r="47" spans="1:13" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:13" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="4" t="s">
         <v>70</v>
       </c>
       <c r="B47" s="7" t="s">
         <v>104</v>
       </c>
+      <c r="F47" t="s">
+        <v>128</v>
+      </c>
       <c r="H47">
         <f t="shared" ref="H47:H48" si="8">IF(C47="X",1)+IF(D47="X",2)+IF(E47="X",3)+IF(F47="X",4)+IF(G47="X",5)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="5" t="s">
-        <v>70</v>
+        <v>134</v>
       </c>
       <c r="B48" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="G48">
-        <f ca="1">A39:H48</f>
-        <v>0</v>
+      <c r="G48" t="s">
+        <v>128</v>
       </c>
       <c r="H48">
-        <f t="shared" ca="1" si="8"/>
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>5</v>
       </c>
     </row>
     <row r="49" spans="1:13" ht="21" thickBot="1" x14ac:dyDescent="0.3">
@@ -1838,9 +1985,12 @@
       <c r="B50" s="18" t="s">
         <v>110</v>
       </c>
+      <c r="F50" t="s">
+        <v>128</v>
+      </c>
       <c r="H50">
         <f t="shared" ref="H50:H51" si="9">IF(C50="X",1)+IF(D50="X",2)+IF(E50="X",3)+IF(F50="X",4)+IF(G50="X",5)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="51" spans="1:13" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -1850,9 +2000,12 @@
       <c r="B51" s="7" t="s">
         <v>108</v>
       </c>
+      <c r="F51" t="s">
+        <v>128</v>
+      </c>
       <c r="H51">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="52" spans="1:13" ht="21" thickBot="1" x14ac:dyDescent="0.3">
@@ -1868,22 +2021,28 @@
       <c r="B53" s="7" t="s">
         <v>112</v>
       </c>
+      <c r="D53" t="s">
+        <v>128</v>
+      </c>
       <c r="H53">
         <f t="shared" ref="H53:H54" si="10">IF(C53="X",1)+IF(D53="X",2)+IF(E53="X",3)+IF(F53="X",4)+IF(G53="X",5)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K53" s="17"/>
     </row>
-    <row r="54" spans="1:13" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:13" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="5" t="s">
         <v>74</v>
       </c>
       <c r="B54" s="19" t="s">
         <v>113</v>
       </c>
+      <c r="F54" t="s">
+        <v>128</v>
+      </c>
       <c r="H54">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="55" spans="1:13" ht="21" thickBot="1" x14ac:dyDescent="0.3">
@@ -1903,9 +2062,12 @@
       <c r="B56" s="19" t="s">
         <v>115</v>
       </c>
+      <c r="C56" t="s">
+        <v>128</v>
+      </c>
       <c r="H56">
         <f t="shared" ref="H56:H57" si="11">IF(C56="X",1)+IF(D56="X",2)+IF(E56="X",3)+IF(F56="X",4)+IF(G56="X",5)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:13" ht="21" thickBot="1" x14ac:dyDescent="0.3">
@@ -1915,9 +2077,12 @@
       <c r="B57" s="7" t="s">
         <v>114</v>
       </c>
+      <c r="E57" t="s">
+        <v>128</v>
+      </c>
       <c r="H57">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="58" spans="1:13" ht="21" thickBot="1" x14ac:dyDescent="0.3">
@@ -1934,9 +2099,12 @@
       <c r="B59" s="7" t="s">
         <v>109</v>
       </c>
+      <c r="F59" t="s">
+        <v>128</v>
+      </c>
       <c r="H59">
         <f t="shared" ref="H59" si="12">IF(C59="X",1)+IF(D59="X",2)+IF(E59="X",3)+IF(F59="X",4)+IF(G59="X",5)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="60" spans="1:13" ht="21" thickBot="1" x14ac:dyDescent="0.3">
@@ -1958,9 +2126,12 @@
       <c r="B61" s="18" t="s">
         <v>121</v>
       </c>
+      <c r="G61" t="s">
+        <v>128</v>
+      </c>
       <c r="H61">
         <f t="shared" ref="H61:H62" si="13">IF(C61="X",1)+IF(D61="X",2)+IF(E61="X",3)+IF(F61="X",4)+IF(G61="X",5)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="62" spans="1:13" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -1970,9 +2141,12 @@
       <c r="B62" s="7" t="s">
         <v>122</v>
       </c>
+      <c r="E62" t="s">
+        <v>128</v>
+      </c>
       <c r="H62">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="63" spans="1:13" ht="21" thickBot="1" x14ac:dyDescent="0.3">
@@ -1988,9 +2162,12 @@
       <c r="B64" s="7" t="s">
         <v>123</v>
       </c>
+      <c r="D64" t="s">
+        <v>128</v>
+      </c>
       <c r="H64">
         <f t="shared" ref="H64" si="14">IF(C64="X",1)+IF(D64="X",2)+IF(E64="X",3)+IF(F64="X",4)+IF(G64="X",5)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:13" ht="21" thickBot="1" x14ac:dyDescent="0.3">
@@ -2006,9 +2183,12 @@
       <c r="B66" s="7" t="s">
         <v>124</v>
       </c>
+      <c r="E66" t="s">
+        <v>128</v>
+      </c>
       <c r="H66">
         <f t="shared" ref="H66" si="15">IF(C66="X",1)+IF(D66="X",2)+IF(E66="X",3)+IF(F66="X",4)+IF(G66="X",5)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="67" spans="1:13" ht="21" thickBot="1" x14ac:dyDescent="0.3">
@@ -2025,9 +2205,12 @@
       <c r="B68" s="7" t="s">
         <v>125</v>
       </c>
+      <c r="E68" t="s">
+        <v>128</v>
+      </c>
       <c r="H68">
         <f>IF(C68="X",1)+IF(D68="X",2)+IF(E68="X",3)+IF(F68="X",4)+IF(G68="X",5)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="69" spans="1:13" ht="21" thickBot="1" x14ac:dyDescent="0.3">
@@ -2037,13 +2220,16 @@
       <c r="B69" s="7" t="s">
         <v>126</v>
       </c>
+      <c r="E69" t="s">
+        <v>128</v>
+      </c>
       <c r="H69">
         <f>IF(C69="X",1)+IF(D69="X",2)+IF(E69="X",3)+IF(F69="X",4)+IF(G69="X",5)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="70" spans="1:13" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A70" s="27"/>
+      <c r="A70" s="45"/>
       <c r="B70" s="7"/>
     </row>
     <row r="71" spans="1:13" ht="20.25" x14ac:dyDescent="0.25">
@@ -2133,6 +2319,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2140,8 +2327,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AD69"/>
   <sheetViews>
-    <sheetView topLeftCell="A48" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:I69"/>
+    <sheetView topLeftCell="A47" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A71" sqref="A71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2328,7 +2515,7 @@
     </row>
     <row r="14" spans="1:13" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
-        <v>38</v>
+        <v>132</v>
       </c>
       <c r="B14" s="7" t="s">
         <v>85</v>
@@ -2511,7 +2698,7 @@
     </row>
     <row r="26" spans="1:30" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
-        <v>42</v>
+        <v>133</v>
       </c>
       <c r="B26" s="7" t="s">
         <v>93</v>
@@ -3095,7 +3282,7 @@
     </row>
     <row r="48" spans="1:30" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="5" t="s">
-        <v>70</v>
+        <v>134</v>
       </c>
       <c r="B48" s="7" t="s">
         <v>111</v>
@@ -3236,7 +3423,7 @@
     </row>
     <row r="59" spans="1:14" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="4" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="B59" s="7" t="s">
         <v>109</v>
@@ -3339,7 +3526,7 @@
     </row>
     <row r="69" spans="1:8" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="4" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="B69" s="7" t="s">
         <v>126</v>
@@ -3359,8 +3546,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:N94"/>
   <sheetViews>
-    <sheetView topLeftCell="A50" zoomScale="63" workbookViewId="0">
-      <selection activeCell="I69" sqref="A1:I69"/>
+    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="63" workbookViewId="0">
+      <selection activeCell="A72" sqref="A72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3546,7 +3733,7 @@
     </row>
     <row r="14" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
-        <v>38</v>
+        <v>132</v>
       </c>
       <c r="B14" s="7" t="s">
         <v>85</v>
@@ -3678,7 +3865,7 @@
     </row>
     <row r="26" spans="1:13" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
-        <v>42</v>
+        <v>133</v>
       </c>
       <c r="B26" s="7" t="s">
         <v>93</v>
@@ -3912,7 +4099,7 @@
     </row>
     <row r="48" spans="1:13" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="5" t="s">
-        <v>70</v>
+        <v>134</v>
       </c>
       <c r="B48" s="7" t="s">
         <v>111</v>
@@ -4037,7 +4224,7 @@
     </row>
     <row r="59" spans="1:13" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="4" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="B59" s="7" t="s">
         <v>109</v>
@@ -4140,7 +4327,7 @@
     </row>
     <row r="69" spans="1:14" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="4" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="B69" s="7" t="s">
         <v>126</v>
@@ -4161,7 +4348,7 @@
       <c r="C71" s="29"/>
     </row>
     <row r="72" spans="1:14" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A72" s="29"/>
+      <c r="A72" s="37"/>
       <c r="B72" s="25"/>
       <c r="C72" s="36"/>
       <c r="D72" s="21"/>
@@ -4296,8 +4483,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:I90"/>
   <sheetViews>
-    <sheetView zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
-      <selection activeCell="Q7" sqref="Q7"/>
+    <sheetView topLeftCell="A6" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
+      <selection activeCell="A69" sqref="A69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4483,7 +4670,7 @@
     </row>
     <row r="14" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
-        <v>38</v>
+        <v>132</v>
       </c>
       <c r="B14" s="7" t="s">
         <v>85</v>
@@ -4611,7 +4798,7 @@
     </row>
     <row r="26" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
-        <v>42</v>
+        <v>133</v>
       </c>
       <c r="B26" s="7" t="s">
         <v>93</v>
@@ -4841,7 +5028,7 @@
     </row>
     <row r="48" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="5" t="s">
-        <v>70</v>
+        <v>134</v>
       </c>
       <c r="B48" s="7" t="s">
         <v>111</v>
@@ -4961,7 +5148,7 @@
     </row>
     <row r="59" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="4" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="B59" s="7" t="s">
         <v>109</v>
@@ -5064,7 +5251,7 @@
     </row>
     <row r="69" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="4" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="B69" s="7" t="s">
         <v>126</v>
@@ -5195,8 +5382,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:J70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
-      <selection activeCell="H66" sqref="H66"/>
+    <sheetView topLeftCell="A41" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
+      <selection activeCell="H65" sqref="H65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -5241,7 +5428,7 @@
       </c>
       <c r="H2" s="10">
         <f>AVERAGE(Quest.Utente1!H2,Quest.Utente2!H2,Quest.Utente3!H2,Quest.Utente4!H2)</f>
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="I2" s="10" t="s">
         <v>46</v>
@@ -5257,7 +5444,7 @@
       </c>
       <c r="H3" s="10">
         <f>AVERAGE(Quest.Utente1!H3,Quest.Utente2!H3,Quest.Utente3!H3,Quest.Utente4!H3)</f>
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="I3" s="10" t="s">
         <v>46</v>
@@ -5282,7 +5469,7 @@
       <c r="A5" s="5"/>
       <c r="H5" s="14">
         <f>AVERAGE(H2:H4)</f>
-        <v>4.333333333333333</v>
+        <v>4</v>
       </c>
       <c r="I5" s="10" t="s">
         <v>57</v>
@@ -5300,7 +5487,7 @@
       </c>
       <c r="H6" s="10">
         <f>AVERAGE(Quest.Utente1!H8,Quest.Utente2!H6,Quest.Utente3!H8,Quest.Utente4!H8)</f>
-        <v>1.75</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5324,14 +5511,14 @@
       </c>
       <c r="H8" s="10">
         <f>AVERAGE(Quest.Utente1!H10,Quest.Utente2!H8,Quest.Utente3!H10,Quest.Utente4!H10)</f>
-        <v>0.5</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5"/>
       <c r="H9" s="14">
         <f>AVERAGE(H6:H8)</f>
-        <v>1.0833333333333333</v>
+        <v>1.25</v>
       </c>
       <c r="I9" s="10" t="s">
         <v>57</v>
@@ -5349,7 +5536,7 @@
       </c>
       <c r="H10" s="10">
         <f>AVERAGE(Quest.Utente1!H10,Quest.Utente2!H10,Quest.Utente3!H10,Quest.Utente4!H10)</f>
-        <v>0</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5361,14 +5548,14 @@
       </c>
       <c r="H11" s="10">
         <f>AVERAGE(Quest.Utente1!H11,Quest.Utente2!H11,Quest.Utente3!H11,Quest.Utente4!H11)</f>
-        <v>0</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5"/>
       <c r="H12" s="14">
         <f>AVERAGE(H10,H11)</f>
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="I12" s="10" t="s">
         <v>57</v>
@@ -5386,7 +5573,7 @@
       </c>
       <c r="H13" s="10">
         <f>AVERAGE(Quest.Utente1!H14,Quest.Utente2!H14,Quest.Utente3!H14,Quest.Utente4!H14)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13" s="6"/>
     </row>
@@ -5399,7 +5586,7 @@
       </c>
       <c r="H14" s="10">
         <f>AVERAGE(Quest.Utente1!H18,Quest.Utente2!H14,Quest.Utente3!H18,Quest.Utente4!H18)</f>
-        <v>0</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="21" thickBot="1" x14ac:dyDescent="0.3">
@@ -5409,7 +5596,7 @@
       <c r="B15" s="7"/>
       <c r="H15" s="14">
         <f>AVERAGE(H13,H14)</f>
-        <v>0</v>
+        <v>1.125</v>
       </c>
       <c r="I15" s="10" t="s">
         <v>57</v>
@@ -5427,7 +5614,7 @@
       </c>
       <c r="H16" s="10">
         <f>AVERAGE(Quest.Utente1!H16,Quest.Utente2!H16,Quest.Utente3!H16,Quest.Utente4!H16)</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -5439,7 +5626,7 @@
       </c>
       <c r="H17" s="10">
         <f>AVERAGE(Quest.Utente1!H17,Quest.Utente2!H17,Quest.Utente3!H17,Quest.Utente4!H17)</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -5451,7 +5638,7 @@
       </c>
       <c r="H18" s="10">
         <f>AVERAGE(Quest.Utente1!H18,Quest.Utente2!H18,Quest.Utente3!H18,Quest.Utente4!H18)</f>
-        <v>0</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="21" thickBot="1" x14ac:dyDescent="0.3">
@@ -5459,7 +5646,7 @@
       <c r="B19" s="7"/>
       <c r="H19" s="14">
         <f>AVERAGE(H16:H18)</f>
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="I19" s="10" t="s">
         <v>57</v>
@@ -5477,7 +5664,7 @@
       </c>
       <c r="H20" s="10">
         <f>AVERAGE(Quest.Utente1!H20,Quest.Utente2!H20,Quest.Utente3!H20,Quest.Utente4!H20)</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="21" thickBot="1" x14ac:dyDescent="0.3">
@@ -5489,7 +5676,7 @@
       </c>
       <c r="H21" s="24">
         <f>AVERAGE(Quest.Utente1!H21,Quest.Utente2!H21,Quest.Utente3!H21,Quest.Utente4!H21)</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="J21" s="25"/>
     </row>
@@ -5498,7 +5685,7 @@
       <c r="B22" s="19"/>
       <c r="H22" s="14">
         <f>AVERAGE(H20:H21)</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="I22" s="10" t="s">
         <v>57</v>
@@ -5516,7 +5703,7 @@
       </c>
       <c r="H23" s="10">
         <f>AVERAGE(Quest.Utente1!H23,Quest.Utente2!H23,Quest.Utente3!H23,Quest.Utente4!H23)</f>
-        <v>0</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5524,7 +5711,7 @@
       <c r="B24" s="7"/>
       <c r="H24" s="14">
         <f>H23</f>
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="I24" s="10" t="s">
         <v>57</v>
@@ -5542,7 +5729,7 @@
       </c>
       <c r="H25" s="10">
         <f>AVERAGE(Quest.Utente1!H25,Quest.Utente2!H25,Quest.Utente3!H25,Quest.Utente4!H25)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="21" thickBot="1" x14ac:dyDescent="0.3">
@@ -5554,7 +5741,7 @@
       </c>
       <c r="H26" s="24">
         <f>AVERAGE(Quest.Utente1!H26,Quest.Utente2!H26,Quest.Utente3!H26,Quest.Utente4!H26)</f>
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="J26" s="25"/>
     </row>
@@ -5563,7 +5750,7 @@
       <c r="B27" s="7"/>
       <c r="H27" s="26">
         <f>AVERAGE(H25:H26)</f>
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="I27" s="10" t="s">
         <v>57</v>
@@ -5581,7 +5768,7 @@
       </c>
       <c r="H28" s="10">
         <f>AVERAGE(Quest.Utente1!H28,Quest.Utente2!H28,Quest.Utente3!H28,Quest.Utente4!H28)</f>
-        <v>0</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -5593,7 +5780,7 @@
       </c>
       <c r="H29" s="10">
         <f>AVERAGE(Quest.Utente1!H29,Quest.Utente2!H29,Quest.Utente3!H29,Quest.Utente4!H29)</f>
-        <v>0</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -5605,7 +5792,7 @@
       </c>
       <c r="H30" s="24">
         <f>AVERAGE(Quest.Utente1!H29,Quest.Utente2!H29,Quest.Utente3!H29,Quest.Utente4!H29)</f>
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="J30" s="25"/>
     </row>
@@ -5614,7 +5801,7 @@
       <c r="B31" s="7"/>
       <c r="H31" s="26">
         <f>AVERAGE(H28:H30)</f>
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="I31" s="10" t="s">
         <v>57</v>
@@ -5632,7 +5819,7 @@
       </c>
       <c r="H32" s="10">
         <f>AVERAGE(Quest.Utente1!H32,Quest.Utente2!H32,Quest.Utente3!H32,Quest.Utente4!H32)</f>
-        <v>0</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -5644,7 +5831,7 @@
       </c>
       <c r="H33" s="24">
         <f>AVERAGE(Quest.Utente1!H33,Quest.Utente2!H33,Quest.Utente3!H33,Quest.Utente4!H33)</f>
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="J33" s="25"/>
     </row>
@@ -5653,7 +5840,7 @@
       <c r="B34" s="18"/>
       <c r="H34" s="26">
         <f>AVERAGE(H32:H33)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I34" s="10" t="s">
         <v>57</v>
@@ -5671,7 +5858,7 @@
       </c>
       <c r="H35">
         <f>AVERAGE(Quest.Utente1!H35,Quest.Utente2!H35,Quest.Utente3!H35,Quest.Utente4!H35)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:10" ht="21" thickBot="1" x14ac:dyDescent="0.3">
@@ -5679,7 +5866,7 @@
       <c r="B36" s="7"/>
       <c r="H36" s="26">
         <f>H35</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I36" s="10" t="s">
         <v>57</v>
@@ -5697,7 +5884,7 @@
       </c>
       <c r="H37">
         <f>AVERAGE(Quest.Utente1!H37,Quest.Utente2!H37,Quest.Utente3!H37,Quest.Utente4!H37)</f>
-        <v>0</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="21" thickBot="1" x14ac:dyDescent="0.3">
@@ -5705,7 +5892,7 @@
       <c r="B38" s="7"/>
       <c r="H38" s="26">
         <f>H37</f>
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="I38" s="10" t="s">
         <v>57</v>
@@ -5723,7 +5910,7 @@
       </c>
       <c r="H39">
         <f>AVERAGE(Quest.Utente1!H39,Quest.Utente2!H39,Quest.Utente3!H39,Quest.Utente4!H39)</f>
-        <v>0</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="40" spans="1:10" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -5735,7 +5922,7 @@
       </c>
       <c r="H40">
         <f>AVERAGE(Quest.Utente1!H40,Quest.Utente2!H40,Quest.Utente3!H40,Quest.Utente4!H40)</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="41" spans="1:10" ht="21" thickBot="1" x14ac:dyDescent="0.3">
@@ -5743,7 +5930,7 @@
       <c r="B41" s="7"/>
       <c r="H41" s="26">
         <f>AVERAGE(H39:H40)</f>
-        <v>0</v>
+        <v>0.625</v>
       </c>
       <c r="I41" s="10" t="s">
         <v>57</v>
@@ -5761,7 +5948,7 @@
       </c>
       <c r="H42">
         <f>AVERAGE(Quest.Utente1!H42,Quest.Utente2!H42,Quest.Utente3!H42,Quest.Utente4!H42)</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="43" spans="1:10" ht="21" thickBot="1" x14ac:dyDescent="0.3">
@@ -5773,7 +5960,7 @@
       </c>
       <c r="H43">
         <f>AVERAGE(Quest.Utente1!H43,Quest.Utente2!H43,Quest.Utente3!H43,Quest.Utente4!H43)</f>
-        <v>0</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="21" thickBot="1" x14ac:dyDescent="0.3">
@@ -5781,7 +5968,7 @@
       <c r="B44" s="19"/>
       <c r="H44" s="26">
         <f>AVERAGE(H42:H43)</f>
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="I44" s="10" t="s">
         <v>57</v>
@@ -5799,7 +5986,7 @@
       </c>
       <c r="H45">
         <f>AVERAGE(Quest.Utente1!H45,Quest.Utente2!H45,Quest.Utente3!H45,Quest.Utente4!H45)</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="46" spans="1:10" ht="21" thickBot="1" x14ac:dyDescent="0.3">
@@ -5807,7 +5994,7 @@
       <c r="B46" s="19"/>
       <c r="H46" s="26">
         <f>H45</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="I46" s="10" t="s">
         <v>57</v>
@@ -5825,7 +6012,7 @@
       </c>
       <c r="H47">
         <f>AVERAGE(Quest.Utente1!H47,Quest.Utente2!H47,Quest.Utente3!H47,Quest.Utente4!H47)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:10" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5863,7 +6050,7 @@
       </c>
       <c r="H50">
         <f>AVERAGE(Quest.Utente1!H50,Quest.Utente2!H50,Quest.Utente3!H50,Quest.Utente4!H50)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:10" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -5875,7 +6062,7 @@
       </c>
       <c r="H51">
         <f>AVERAGE(Quest.Utente1!H51,Quest.Utente2!H51,Quest.Utente3!H51,Quest.Utente4!H51)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:10" s="29" customFormat="1" ht="21" thickBot="1" x14ac:dyDescent="0.3">
@@ -5883,7 +6070,7 @@
       <c r="B52" s="25"/>
       <c r="H52" s="26">
         <f>AVERAGE(H50:H51)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I52" s="10" t="s">
         <v>57</v>
@@ -5901,7 +6088,7 @@
       </c>
       <c r="H53">
         <f>AVERAGE(Quest.Utente1!H53,Quest.Utente2!H53,Quest.Utente3!H53,Quest.Utente4!H53)</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="54" spans="1:10" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5913,7 +6100,7 @@
       </c>
       <c r="H54">
         <f>AVERAGE(Quest.Utente1!H54,Quest.Utente2!H54,Quest.Utente3!H54,Quest.Utente4!H54)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:10" s="29" customFormat="1" ht="21" thickBot="1" x14ac:dyDescent="0.3">
@@ -5921,7 +6108,7 @@
       <c r="B55" s="25"/>
       <c r="H55" s="26">
         <f>AVERAGE(H53:H54)</f>
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="I55" s="10" t="s">
         <v>57</v>
@@ -5939,7 +6126,7 @@
       </c>
       <c r="H56">
         <f>AVERAGE(Quest.Utente1!H56,Quest.Utente2!H56,Quest.Utente3!H56,Quest.Utente4!H56)</f>
-        <v>0</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="57" spans="1:10" ht="21" thickBot="1" x14ac:dyDescent="0.3">
@@ -5951,7 +6138,7 @@
       </c>
       <c r="H57">
         <f>AVERAGE(Quest.Utente1!H57,Quest.Utente2!H57,Quest.Utente3!H57,Quest.Utente4!H57)</f>
-        <v>0</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="58" spans="1:10" s="29" customFormat="1" ht="21" thickBot="1" x14ac:dyDescent="0.3">
@@ -5959,7 +6146,7 @@
       <c r="B58" s="25"/>
       <c r="H58" s="26">
         <f>AVERAGE(H56:H57)</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="I58" s="10" t="s">
         <v>57</v>
@@ -5970,21 +6157,21 @@
     </row>
     <row r="59" spans="1:10" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="9" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="B59" s="7" t="s">
         <v>109</v>
       </c>
       <c r="H59">
         <f>AVERAGE(Quest.Utente1!H59,Quest.Utente2!H59,Quest.Utente3!H59,Quest.Utente4!H59)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:10" s="29" customFormat="1" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B60" s="25"/>
       <c r="H60" s="26">
         <f>H59</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I60" s="10" t="s">
         <v>57</v>
@@ -6002,7 +6189,7 @@
       </c>
       <c r="H61">
         <f>AVERAGE(Quest.Utente1!H61,Quest.Utente2!H61,Quest.Utente3!H61,Quest.Utente4!H61)</f>
-        <v>0</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="62" spans="1:10" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -6014,7 +6201,7 @@
       </c>
       <c r="H62" s="24">
         <f>AVERAGE(Quest.Utente1!H62,Quest.Utente2!H62,Quest.Utente3!H62,Quest.Utente4!H62)</f>
-        <v>0</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="63" spans="1:10" s="29" customFormat="1" ht="21" thickBot="1" x14ac:dyDescent="0.3">
@@ -6022,7 +6209,7 @@
       <c r="B63" s="25"/>
       <c r="H63" s="26">
         <f>AVERAGE(H61:H62)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I63" s="10" t="s">
         <v>57</v>
@@ -6040,7 +6227,7 @@
       </c>
       <c r="H64" s="24">
         <f>AVERAGE(Quest.Utente1!H64,Quest.Utente2!H64,Quest.Utente3!H64,Quest.Utente4!H64)</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="65" spans="1:10" s="29" customFormat="1" ht="21" thickBot="1" x14ac:dyDescent="0.3">
@@ -6048,7 +6235,7 @@
       <c r="B65" s="25"/>
       <c r="H65" s="26">
         <f>H64</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="I65" s="10" t="s">
         <v>57</v>
@@ -6066,7 +6253,7 @@
       </c>
       <c r="H66" s="24">
         <f>AVERAGE(Quest.Utente1!H66,Quest.Utente2!H66,Quest.Utente3!H66,Quest.Utente4!H66)</f>
-        <v>0</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="67" spans="1:10" s="29" customFormat="1" ht="21" thickBot="1" x14ac:dyDescent="0.3">
@@ -6074,7 +6261,7 @@
       <c r="B67" s="25"/>
       <c r="H67" s="26">
         <f>H66</f>
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="J67" s="4" t="s">
         <v>34</v>
@@ -6089,19 +6276,19 @@
       </c>
       <c r="H68">
         <f>AVERAGE(Quest.Utente1!H68,Quest.Utente2!H68,Quest.Utente3!H68,Quest.Utente4!H68)</f>
-        <v>0</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="69" spans="1:10" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="4" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="B69" s="7" t="s">
         <v>126</v>
       </c>
       <c r="H69" s="24">
         <f>AVERAGE(Quest.Utente1!H69,Quest.Utente2!H69,Quest.Utente3!H69,Quest.Utente4!H69)</f>
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="I69" s="31"/>
       <c r="J69" s="25"/>
@@ -6109,7 +6296,7 @@
     <row r="70" spans="1:10" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H70" s="26">
         <f>AVERAGE(H68:H69)</f>
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="I70" s="31" t="s">
         <v>57</v>
@@ -6126,10 +6313,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -6157,56 +6344,125 @@
       </c>
       <c r="B2" s="16">
         <f>MEDIE!H5</f>
-        <v>4.333333333333333</v>
+        <v>4</v>
       </c>
       <c r="C2" s="16">
         <f>MEDIE!H9</f>
-        <v>1.0833333333333333</v>
+        <v>1.25</v>
       </c>
       <c r="D2" s="15">
         <f>MEDIE!H12</f>
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="E2" s="15">
         <f>MEDIE!H21</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
+      <c r="B3" s="39">
+        <f>MEDIE!H18</f>
+        <v>1.25</v>
+      </c>
+      <c r="C3" s="40">
+        <f>MEDIE!H22</f>
+        <v>0.5</v>
+      </c>
+      <c r="D3" s="42">
+        <f>MEDIE!H24</f>
+        <v>0.75</v>
+      </c>
+      <c r="E3" s="43">
+        <f>MEDIE!H26</f>
+        <v>0.75</v>
+      </c>
     </row>
     <row r="4" spans="1:5" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="B4" s="16"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
+      <c r="B4" s="16">
+        <f>MEDIE!H31</f>
+        <v>1.25</v>
+      </c>
+      <c r="C4" s="16">
+        <f>MEDIE!H34</f>
+        <v>1</v>
+      </c>
+      <c r="D4" s="44">
+        <f>MEDIE!H37</f>
+        <v>1.25</v>
+      </c>
+      <c r="E4" s="44">
+        <f>MEDIE!H38</f>
+        <v>1.25</v>
+      </c>
     </row>
     <row r="5" spans="1:5" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
+      <c r="B5" s="41">
+        <f>MEDIE!H41</f>
+        <v>0.625</v>
+      </c>
+      <c r="C5" s="41">
+        <f>MEDIE!H44</f>
+        <v>0.875</v>
+      </c>
+      <c r="D5" s="42">
+        <f>MEDIE!H46</f>
+        <v>0.5</v>
+      </c>
+      <c r="E5" s="42">
+        <f ca="1">MEDIE!H49</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:5" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="B6" s="16"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
+      <c r="B6" s="16">
+        <f>MEDIE!H52</f>
+        <v>1</v>
+      </c>
+      <c r="C6" s="16">
+        <f>MEDIE!H55</f>
+        <v>0.75</v>
+      </c>
+      <c r="D6" s="44">
+        <f>MEDIE!H58</f>
+        <v>0.5</v>
+      </c>
+      <c r="E6" s="44">
+        <f>MEDIE!H60</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="38" t="s">
+        <v>131</v>
+      </c>
+      <c r="B7" s="41">
+        <f>MEDIE!H63</f>
+        <v>1</v>
+      </c>
+      <c r="C7" s="41">
+        <f>MEDIE!H65</f>
+        <v>0.5</v>
+      </c>
+      <c r="D7" s="42">
+        <f>MEDIE!H67</f>
+        <v>0.75</v>
+      </c>
+      <c r="E7" s="42">
+        <f>MEDIE!H69</f>
+        <v>0.75</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/QuestionariUtenti.xlsx
+++ b/QuestionariUtenti.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ALDO\Desktop\ITERAZIONE UOMO MACCHINA\EcoCoin\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FrancescoCapriglione\Desktop\Università\IUM\EcoCoin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ADF9BAA-71A6-4EFF-8313-BFC99E42C568}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F65AFCB-0FF5-4D55-9B56-3FEBE63133FE}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12315" tabRatio="500" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12312" tabRatio="500" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BEHAVIOURABILITY" sheetId="1" r:id="rId1"/>
@@ -26,6 +26,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="745" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="855" uniqueCount="136">
   <si>
     <t>TASK T2&lt;breve descriz.&gt;</t>
   </si>
@@ -533,6 +534,9 @@
   <si>
     <t>T4_MOT2</t>
   </si>
+  <si>
+    <t>Come valuti il tuo livello di conoscenza riguardo le discariche abusive?</t>
+  </si>
 </sst>
 </file>
 
@@ -541,7 +545,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -636,6 +640,11 @@
       <b/>
       <sz val="16"/>
       <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="16"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
@@ -847,12 +856,6 @@
     <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
@@ -866,6 +869,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="14" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
@@ -1155,16 +1164,16 @@
       <selection pane="bottomLeft" activeCell="B2" sqref="B2:E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.625" customWidth="1"/>
+    <col min="1" max="1" width="28.59765625" customWidth="1"/>
     <col min="2" max="2" width="28" customWidth="1"/>
-    <col min="3" max="3" width="25.625" customWidth="1"/>
-    <col min="4" max="4" width="22.875" customWidth="1"/>
-    <col min="5" max="5" width="17.625" customWidth="1"/>
+    <col min="3" max="3" width="25.59765625" customWidth="1"/>
+    <col min="4" max="4" width="22.8984375" customWidth="1"/>
+    <col min="5" max="5" width="17.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="2" customFormat="1" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" s="2" customFormat="1" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
@@ -1178,7 +1187,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1195,7 +1204,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -1212,7 +1221,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -1229,7 +1238,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -1246,7 +1255,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -1263,7 +1272,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -1280,32 +1289,32 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>12</v>
       </c>
@@ -1320,20 +1329,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M88"/>
   <sheetViews>
-    <sheetView topLeftCell="A41" zoomScale="75" workbookViewId="0">
-      <selection activeCell="B72" sqref="B72"/>
+    <sheetView topLeftCell="A39" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="24" customWidth="1"/>
-    <col min="2" max="2" width="70.125" customWidth="1"/>
-    <col min="4" max="4" width="13.125" customWidth="1"/>
+    <col min="2" max="2" width="70.09765625" customWidth="1"/>
+    <col min="4" max="4" width="13.09765625" customWidth="1"/>
     <col min="7" max="7" width="10.5" customWidth="1"/>
-    <col min="8" max="8" width="18.875" customWidth="1"/>
+    <col min="8" max="8" width="18.8984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="142.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="147.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B1" s="4" t="s">
         <v>23</v>
       </c>
@@ -1359,7 +1368,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>20</v>
       </c>
@@ -1374,7 +1383,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>21</v>
       </c>
@@ -1389,7 +1398,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
         <v>22</v>
       </c>
@@ -1404,13 +1413,13 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="5"/>
       <c r="B5" s="4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
         <v>31</v>
       </c>
@@ -1425,7 +1434,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
         <v>32</v>
       </c>
@@ -1440,7 +1449,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
         <v>33</v>
       </c>
@@ -1455,13 +1464,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="5"/>
       <c r="B9" s="4" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="4" t="s">
         <v>35</v>
       </c>
@@ -1476,7 +1485,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
         <v>36</v>
       </c>
@@ -1492,13 +1501,13 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="5"/>
       <c r="B12" s="4" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="4" t="s">
         <v>38</v>
       </c>
@@ -1514,7 +1523,7 @@
       </c>
       <c r="I13" s="6"/>
     </row>
-    <row r="14" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="5" t="s">
         <v>132</v>
       </c>
@@ -1529,7 +1538,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="22"/>
       <c r="B15" s="4" t="s">
         <v>23</v>
@@ -1542,7 +1551,7 @@
       <c r="H15" s="23"/>
       <c r="I15" s="20"/>
     </row>
-    <row r="16" spans="1:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="4" t="s">
         <v>17</v>
       </c>
@@ -1557,7 +1566,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="5" t="s">
         <v>18</v>
       </c>
@@ -1572,7 +1581,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="4" t="s">
         <v>19</v>
       </c>
@@ -1587,7 +1596,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="5"/>
       <c r="B19" s="4" t="s">
         <v>30</v>
@@ -1597,7 +1606,7 @@
       <c r="L19" s="20"/>
       <c r="M19" s="20"/>
     </row>
-    <row r="20" spans="1:13" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="4" t="s">
         <v>39</v>
       </c>
@@ -1612,7 +1621,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="5" t="s">
         <v>40</v>
       </c>
@@ -1627,13 +1636,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="5"/>
       <c r="B22" s="4" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="4" t="s">
         <v>41</v>
       </c>
@@ -1648,13 +1657,13 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="5"/>
       <c r="B24" s="4" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="4" t="s">
         <v>42</v>
       </c>
@@ -1670,7 +1679,7 @@
       </c>
       <c r="I25" s="6"/>
     </row>
-    <row r="26" spans="1:13" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="5" t="s">
         <v>133</v>
       </c>
@@ -1685,7 +1694,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="22"/>
       <c r="B27" s="4" t="s">
         <v>23</v>
@@ -1698,7 +1707,7 @@
       <c r="H27" s="20"/>
       <c r="I27" s="20"/>
     </row>
-    <row r="28" spans="1:13" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="4" t="s">
         <v>58</v>
       </c>
@@ -1713,7 +1722,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:13" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="5" t="s">
         <v>59</v>
       </c>
@@ -1728,7 +1737,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:13" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:13" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="4" t="s">
         <v>60</v>
       </c>
@@ -1743,13 +1752,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:13" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:13" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="5"/>
       <c r="B31" s="4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:13" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:13" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="4" t="s">
         <v>61</v>
       </c>
@@ -1764,7 +1773,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:13" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:13" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="5" t="s">
         <v>62</v>
       </c>
@@ -1779,13 +1788,13 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:13" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:13" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="5"/>
       <c r="B34" s="4" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="35" spans="1:13" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:13" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="5" t="s">
         <v>63</v>
       </c>
@@ -1800,13 +1809,13 @@
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="1:13" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:13" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="5"/>
       <c r="B36" s="4" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="37" spans="1:13" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:13" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="4" t="s">
         <v>64</v>
       </c>
@@ -1825,7 +1834,7 @@
       <c r="L37" s="20"/>
       <c r="M37" s="20"/>
     </row>
-    <row r="38" spans="1:13" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:13" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="20"/>
       <c r="B38" s="4" t="s">
         <v>23</v>
@@ -1842,7 +1851,7 @@
       <c r="L38" s="20"/>
       <c r="M38" s="20"/>
     </row>
-    <row r="39" spans="1:13" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:13" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="4" t="s">
         <v>65</v>
       </c>
@@ -1857,7 +1866,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:13" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:13" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="4" t="s">
         <v>66</v>
       </c>
@@ -1872,13 +1881,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:13" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:13" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="5"/>
       <c r="B41" s="4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="42" spans="1:13" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:13" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="4" t="s">
         <v>67</v>
       </c>
@@ -1893,7 +1902,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:13" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:13" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="5" t="s">
         <v>68</v>
       </c>
@@ -1908,13 +1917,13 @@
         <v>5</v>
       </c>
     </row>
-    <row r="44" spans="1:13" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:13" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="5"/>
       <c r="B44" s="4" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="45" spans="1:13" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:13" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="4" t="s">
         <v>69</v>
       </c>
@@ -1929,13 +1938,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:13" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:13" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="5"/>
       <c r="B46" s="4" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="47" spans="1:13" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:13" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="4" t="s">
         <v>70</v>
       </c>
@@ -1950,7 +1959,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="48" spans="1:13" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:13" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="5" t="s">
         <v>134</v>
       </c>
@@ -1965,7 +1974,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="49" spans="1:13" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:13" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="20"/>
       <c r="B49" s="4" t="s">
         <v>23</v>
@@ -1978,7 +1987,7 @@
       <c r="H49" s="21"/>
       <c r="I49" s="21"/>
     </row>
-    <row r="50" spans="1:13" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:13" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="4" t="s">
         <v>71</v>
       </c>
@@ -1993,7 +2002,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="51" spans="1:13" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:13" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="4" t="s">
         <v>72</v>
       </c>
@@ -2008,13 +2017,13 @@
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="1:13" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:13" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="5"/>
       <c r="B52" s="4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="53" spans="1:13" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:13" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="4" t="s">
         <v>73</v>
       </c>
@@ -2030,7 +2039,7 @@
       </c>
       <c r="K53" s="17"/>
     </row>
-    <row r="54" spans="1:13" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:13" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" s="5" t="s">
         <v>74</v>
       </c>
@@ -2045,7 +2054,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="55" spans="1:13" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:13" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="5"/>
       <c r="B55" s="4" t="s">
         <v>34</v>
@@ -2055,7 +2064,7 @@
       <c r="L55" s="20"/>
       <c r="M55" s="20"/>
     </row>
-    <row r="56" spans="1:13" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:13" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" s="4" t="s">
         <v>75</v>
       </c>
@@ -2070,7 +2079,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:13" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:13" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A57" s="4" t="s">
         <v>76</v>
       </c>
@@ -2085,14 +2094,14 @@
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:13" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:13" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" s="5"/>
       <c r="B58" s="4" t="s">
         <v>37</v>
       </c>
       <c r="D58" s="17"/>
     </row>
-    <row r="59" spans="1:13" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:13" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A59" s="4" t="s">
         <v>116</v>
       </c>
@@ -2107,7 +2116,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="60" spans="1:13" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:13" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="20"/>
       <c r="B60" s="4" t="s">
         <v>23</v>
@@ -2119,7 +2128,7 @@
       <c r="G60" s="21"/>
       <c r="H60" s="21"/>
     </row>
-    <row r="61" spans="1:13" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:13" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="4" t="s">
         <v>117</v>
       </c>
@@ -2134,7 +2143,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="62" spans="1:13" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:13" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" s="4" t="s">
         <v>118</v>
       </c>
@@ -2149,13 +2158,13 @@
         <v>3</v>
       </c>
     </row>
-    <row r="63" spans="1:13" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:13" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="5"/>
       <c r="B63" s="4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="64" spans="1:13" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:13" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A64" s="4" t="s">
         <v>119</v>
       </c>
@@ -2170,13 +2179,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="65" spans="1:13" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:13" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A65" s="5"/>
       <c r="B65" s="4" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="66" spans="1:13" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:13" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A66" s="4" t="s">
         <v>120</v>
       </c>
@@ -2191,14 +2200,14 @@
         <v>3</v>
       </c>
     </row>
-    <row r="67" spans="1:13" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:13" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A67" s="5"/>
       <c r="B67" s="4" t="s">
         <v>37</v>
       </c>
       <c r="D67" s="17"/>
     </row>
-    <row r="68" spans="1:13" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:13" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A68" s="4" t="s">
         <v>116</v>
       </c>
@@ -2213,7 +2222,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="69" spans="1:13" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:13" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A69" s="4" t="s">
         <v>127</v>
       </c>
@@ -2228,15 +2237,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="70" spans="1:13" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A70" s="45"/>
+    <row r="70" spans="1:13" ht="21" x14ac:dyDescent="0.3">
+      <c r="A70" s="43"/>
       <c r="B70" s="7"/>
     </row>
-    <row r="71" spans="1:13" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:13" ht="21" x14ac:dyDescent="0.3">
       <c r="A71" s="25"/>
       <c r="B71" s="32"/>
     </row>
-    <row r="72" spans="1:13" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:13" ht="21" x14ac:dyDescent="0.3">
       <c r="A72" s="29"/>
       <c r="B72" s="25"/>
       <c r="C72" s="21"/>
@@ -2251,69 +2260,69 @@
       <c r="L72" s="20"/>
       <c r="M72" s="20"/>
     </row>
-    <row r="73" spans="1:13" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:13" ht="21" x14ac:dyDescent="0.3">
       <c r="A73" s="25"/>
       <c r="B73" s="33"/>
     </row>
-    <row r="74" spans="1:13" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:13" ht="21" x14ac:dyDescent="0.3">
       <c r="A74" s="25"/>
       <c r="B74" s="33"/>
     </row>
-    <row r="75" spans="1:13" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:13" ht="21" x14ac:dyDescent="0.3">
       <c r="A75" s="25"/>
       <c r="B75" s="32"/>
     </row>
-    <row r="76" spans="1:13" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:13" ht="21" x14ac:dyDescent="0.3">
       <c r="A76" s="25"/>
       <c r="B76" s="32"/>
     </row>
-    <row r="77" spans="1:13" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:13" ht="21" x14ac:dyDescent="0.3">
       <c r="A77" s="25"/>
       <c r="B77" s="25"/>
     </row>
-    <row r="78" spans="1:13" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:13" ht="21" x14ac:dyDescent="0.3">
       <c r="A78" s="25"/>
       <c r="B78" s="32"/>
     </row>
-    <row r="79" spans="1:13" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:13" ht="21" x14ac:dyDescent="0.3">
       <c r="A79" s="25"/>
       <c r="B79" s="34"/>
     </row>
-    <row r="80" spans="1:13" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:13" ht="21" x14ac:dyDescent="0.3">
       <c r="A80" s="25"/>
       <c r="B80" s="32"/>
     </row>
-    <row r="81" spans="1:4" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" ht="21" x14ac:dyDescent="0.3">
       <c r="A81" s="25"/>
       <c r="B81" s="32"/>
     </row>
-    <row r="82" spans="1:4" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" ht="21" x14ac:dyDescent="0.3">
       <c r="A82" s="25"/>
       <c r="B82" s="25"/>
     </row>
-    <row r="83" spans="1:4" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" ht="21" x14ac:dyDescent="0.3">
       <c r="A83" s="25"/>
       <c r="B83" s="35"/>
     </row>
-    <row r="84" spans="1:4" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" ht="21" x14ac:dyDescent="0.3">
       <c r="A84" s="25"/>
       <c r="B84" s="32"/>
       <c r="C84" s="17"/>
     </row>
-    <row r="85" spans="1:4" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" ht="21" x14ac:dyDescent="0.3">
       <c r="A85" s="25"/>
       <c r="B85" s="32"/>
     </row>
-    <row r="86" spans="1:4" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" ht="21" x14ac:dyDescent="0.3">
       <c r="A86" s="25"/>
       <c r="B86" s="25"/>
       <c r="D86" s="17"/>
     </row>
-    <row r="87" spans="1:4" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4" ht="21" x14ac:dyDescent="0.3">
       <c r="A87" s="25"/>
       <c r="B87" s="32"/>
     </row>
-    <row r="88" spans="1:4" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4" ht="21" x14ac:dyDescent="0.3">
       <c r="A88" s="25"/>
       <c r="B88" s="32"/>
     </row>
@@ -2327,20 +2336,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AD69"/>
   <sheetViews>
-    <sheetView topLeftCell="A47" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A71" sqref="A71"/>
+    <sheetView topLeftCell="A48" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G69" sqref="G69"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="24" customWidth="1"/>
-    <col min="2" max="2" width="70.125" customWidth="1"/>
-    <col min="4" max="4" width="13.125" customWidth="1"/>
+    <col min="2" max="2" width="70.09765625" customWidth="1"/>
+    <col min="4" max="4" width="13.09765625" customWidth="1"/>
     <col min="7" max="7" width="10.5" customWidth="1"/>
-    <col min="8" max="8" width="18.875" customWidth="1"/>
+    <col min="8" max="8" width="18.8984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="142.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" ht="147.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B1" s="4" t="s">
         <v>23</v>
       </c>
@@ -2366,122 +2375,125 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>20</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="F2" t="s">
+      <c r="E2" t="s">
         <v>44</v>
       </c>
       <c r="H2">
         <f>IF(C2="X",1)+IF(D2="X",2)+IF(E2="X",3)+IF(F2="X",4)+IF(G2="X",5)</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>21</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="G3" t="s">
+      <c r="D3" t="s">
         <v>44</v>
       </c>
       <c r="H3">
         <f t="shared" ref="H3:H26" si="0">IF(C3="X",1)+IF(D3="X",2)+IF(E3="X",3)+IF(F3="X",4)+IF(G3="X",5)</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
         <v>22</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="F4" t="s">
+      <c r="D4" t="s">
         <v>44</v>
       </c>
       <c r="H4">
         <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="5"/>
       <c r="B5" s="4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
         <v>31</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>44</v>
       </c>
       <c r="H6">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
         <v>32</v>
       </c>
       <c r="B7" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="C7" t="s">
+      <c r="G7" t="s">
         <v>44</v>
       </c>
       <c r="H7">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
         <v>33</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="D8" t="s">
+      <c r="C8" t="s">
         <v>44</v>
       </c>
       <c r="H8">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="5"/>
       <c r="B9" s="4" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="4" t="s">
         <v>35</v>
       </c>
       <c r="B10" s="7" t="s">
         <v>84</v>
       </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
       <c r="H10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J10" s="17"/>
     </row>
-    <row r="11" spans="1:13" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
         <v>36</v>
       </c>
@@ -2489,43 +2501,52 @@
         <v>83</v>
       </c>
       <c r="C11" s="17"/>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
       <c r="H11">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="5"/>
       <c r="B12" s="4" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="4" t="s">
         <v>38</v>
       </c>
       <c r="B13" s="7" t="s">
         <v>86</v>
       </c>
+      <c r="D13" t="s">
+        <v>44</v>
+      </c>
       <c r="H13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" s="6"/>
     </row>
-    <row r="14" spans="1:13" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="5" t="s">
         <v>132</v>
       </c>
       <c r="B14" s="7" t="s">
         <v>85</v>
       </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
       <c r="H14">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="22"/>
       <c r="B15" s="4" t="s">
         <v>23</v>
@@ -2542,88 +2563,106 @@
       <c r="L15" s="20"/>
       <c r="M15" s="20"/>
     </row>
-    <row r="16" spans="1:13" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B16" s="18" t="s">
         <v>87</v>
       </c>
+      <c r="D16" t="s">
+        <v>44</v>
+      </c>
       <c r="H16">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:30" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:30" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="5" t="s">
         <v>18</v>
       </c>
       <c r="B17" s="18" t="s">
         <v>88</v>
       </c>
+      <c r="D17" t="s">
+        <v>44</v>
+      </c>
       <c r="H17">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:30" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:30" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="4" t="s">
         <v>19</v>
       </c>
       <c r="B18" s="7" t="s">
         <v>89</v>
       </c>
+      <c r="C18" t="s">
+        <v>44</v>
+      </c>
       <c r="H18">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:30" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:30" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="5"/>
       <c r="B19" s="4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="1:30" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:30" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="4" t="s">
         <v>39</v>
       </c>
       <c r="B20" s="7" t="s">
         <v>91</v>
       </c>
+      <c r="D20" t="s">
+        <v>44</v>
+      </c>
       <c r="H20">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:30" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:30" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="5" t="s">
         <v>40</v>
       </c>
       <c r="B21" s="19" t="s">
         <v>90</v>
       </c>
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
       <c r="H21">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:30" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:30" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="5"/>
       <c r="B22" s="4" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="23" spans="1:30" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:30" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="4" t="s">
         <v>41</v>
       </c>
       <c r="B23" s="7" t="s">
         <v>94</v>
       </c>
+      <c r="D23" t="s">
+        <v>44</v>
+      </c>
       <c r="H23">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N23" s="20"/>
       <c r="O23" s="20"/>
@@ -2643,7 +2682,7 @@
       <c r="AC23" s="20"/>
       <c r="AD23" s="20"/>
     </row>
-    <row r="24" spans="1:30" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:30" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="5"/>
       <c r="B24" s="4" t="s">
         <v>37</v>
@@ -2666,16 +2705,19 @@
       <c r="AC24" s="20"/>
       <c r="AD24" s="20"/>
     </row>
-    <row r="25" spans="1:30" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:30" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="4" t="s">
         <v>42</v>
       </c>
       <c r="B25" s="7" t="s">
         <v>92</v>
       </c>
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
       <c r="H25">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I25" s="6"/>
       <c r="N25" s="20"/>
@@ -2696,16 +2738,19 @@
       <c r="AC25" s="20"/>
       <c r="AD25" s="20"/>
     </row>
-    <row r="26" spans="1:30" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:30" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="5" t="s">
         <v>133</v>
       </c>
       <c r="B26" s="7" t="s">
         <v>93</v>
       </c>
+      <c r="C26" t="s">
+        <v>44</v>
+      </c>
       <c r="H26">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N26" s="20"/>
       <c r="O26" s="20"/>
@@ -2725,7 +2770,7 @@
       <c r="AC26" s="20"/>
       <c r="AD26" s="20"/>
     </row>
-    <row r="27" spans="1:30" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:30" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="22"/>
       <c r="B27" s="4" t="s">
         <v>23</v>
@@ -2759,16 +2804,19 @@
       <c r="AC27" s="20"/>
       <c r="AD27" s="20"/>
     </row>
-    <row r="28" spans="1:30" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:30" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="4" t="s">
         <v>58</v>
       </c>
       <c r="B28" s="18" t="s">
         <v>95</v>
       </c>
+      <c r="D28" t="s">
+        <v>44</v>
+      </c>
       <c r="H28">
         <f t="shared" ref="H28:H30" si="1">IF(C28="X",1)+IF(D28="X",2)+IF(E28="X",3)+IF(F28="X",4)+IF(G28="X",5)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N28" s="20"/>
       <c r="O28" s="20"/>
@@ -2788,16 +2836,19 @@
       <c r="AC28" s="20"/>
       <c r="AD28" s="20"/>
     </row>
-    <row r="29" spans="1:30" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:30" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="5" t="s">
         <v>59</v>
       </c>
       <c r="B29" s="18" t="s">
         <v>97</v>
       </c>
+      <c r="F29" t="s">
+        <v>44</v>
+      </c>
       <c r="H29">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N29" s="20"/>
       <c r="O29" s="20"/>
@@ -2817,16 +2868,19 @@
       <c r="AC29" s="20"/>
       <c r="AD29" s="20"/>
     </row>
-    <row r="30" spans="1:30" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:30" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="4" t="s">
         <v>60</v>
       </c>
       <c r="B30" s="7" t="s">
         <v>96</v>
       </c>
+      <c r="C30" t="s">
+        <v>44</v>
+      </c>
       <c r="H30">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N30" s="20"/>
       <c r="O30" s="20"/>
@@ -2846,7 +2900,7 @@
       <c r="AC30" s="20"/>
       <c r="AD30" s="20"/>
     </row>
-    <row r="31" spans="1:30" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:30" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="5"/>
       <c r="B31" s="4" t="s">
         <v>30</v>
@@ -2869,16 +2923,19 @@
       <c r="AC31" s="20"/>
       <c r="AD31" s="20"/>
     </row>
-    <row r="32" spans="1:30" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:30" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="4" t="s">
         <v>61</v>
       </c>
       <c r="B32" s="18" t="s">
         <v>99</v>
       </c>
+      <c r="C32" t="s">
+        <v>44</v>
+      </c>
       <c r="H32">
         <f t="shared" ref="H32:H33" si="2">IF(C32="X",1)+IF(D32="X",2)+IF(E32="X",3)+IF(F32="X",4)+IF(G32="X",5)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N32" s="20"/>
       <c r="O32" s="20"/>
@@ -2898,16 +2955,19 @@
       <c r="AC32" s="20"/>
       <c r="AD32" s="20"/>
     </row>
-    <row r="33" spans="1:30" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:30" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="5" t="s">
         <v>62</v>
       </c>
       <c r="B33" s="18" t="s">
         <v>98</v>
       </c>
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
       <c r="H33">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N33" s="20"/>
       <c r="O33" s="20"/>
@@ -2927,7 +2987,7 @@
       <c r="AC33" s="20"/>
       <c r="AD33" s="20"/>
     </row>
-    <row r="34" spans="1:30" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:30" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="5"/>
       <c r="B34" s="4" t="s">
         <v>34</v>
@@ -2950,16 +3010,19 @@
       <c r="AC34" s="20"/>
       <c r="AD34" s="20"/>
     </row>
-    <row r="35" spans="1:30" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:30" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="5" t="s">
         <v>63</v>
       </c>
       <c r="B35" s="7" t="s">
         <v>100</v>
       </c>
+      <c r="D35" t="s">
+        <v>44</v>
+      </c>
       <c r="H35">
         <f t="shared" ref="H35" si="3">IF(C35="X",1)+IF(D35="X",2)+IF(E35="X",3)+IF(F35="X",4)+IF(G35="X",5)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N35" s="20"/>
       <c r="O35" s="20"/>
@@ -2979,7 +3042,7 @@
       <c r="AC35" s="20"/>
       <c r="AD35" s="20"/>
     </row>
-    <row r="36" spans="1:30" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:30" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="5"/>
       <c r="B36" s="4" t="s">
         <v>37</v>
@@ -3002,16 +3065,19 @@
       <c r="AC36" s="20"/>
       <c r="AD36" s="20"/>
     </row>
-    <row r="37" spans="1:30" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:30" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="4" t="s">
         <v>64</v>
       </c>
       <c r="B37" s="7" t="s">
         <v>101</v>
       </c>
+      <c r="C37" t="s">
+        <v>44</v>
+      </c>
       <c r="H37">
         <f t="shared" ref="H37" si="4">IF(C37="X",1)+IF(D37="X",2)+IF(E37="X",3)+IF(F37="X",4)+IF(G37="X",5)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K37" s="17"/>
       <c r="N37" s="20"/>
@@ -3032,21 +3098,24 @@
       <c r="AC37" s="20"/>
       <c r="AD37" s="20"/>
     </row>
-    <row r="38" spans="1:30" s="20" customFormat="1" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:30" s="20" customFormat="1" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B38" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="39" spans="1:30" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:30" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="4" t="s">
         <v>65</v>
       </c>
       <c r="B39" s="18" t="s">
         <v>103</v>
       </c>
+      <c r="G39" t="s">
+        <v>44</v>
+      </c>
       <c r="H39">
         <f t="shared" ref="H39:H40" si="5">IF(C39="X",1)+IF(D39="X",2)+IF(E39="X",3)+IF(F39="X",4)+IF(G39="X",5)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N39" s="20"/>
       <c r="O39" s="20"/>
@@ -3066,16 +3135,19 @@
       <c r="AC39" s="20"/>
       <c r="AD39" s="20"/>
     </row>
-    <row r="40" spans="1:30" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:30" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="4" t="s">
         <v>66</v>
       </c>
       <c r="B40" s="7" t="s">
         <v>102</v>
       </c>
+      <c r="C40" t="s">
+        <v>44</v>
+      </c>
       <c r="H40">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N40" s="20"/>
       <c r="O40" s="20"/>
@@ -3095,7 +3167,7 @@
       <c r="AC40" s="20"/>
       <c r="AD40" s="20"/>
     </row>
-    <row r="41" spans="1:30" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:30" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="5"/>
       <c r="B41" s="4" t="s">
         <v>30</v>
@@ -3118,16 +3190,19 @@
       <c r="AC41" s="20"/>
       <c r="AD41" s="20"/>
     </row>
-    <row r="42" spans="1:30" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:30" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="4" t="s">
         <v>67</v>
       </c>
       <c r="B42" s="7" t="s">
         <v>105</v>
       </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
       <c r="H42">
         <f t="shared" ref="H42:H43" si="6">IF(C42="X",1)+IF(D42="X",2)+IF(E42="X",3)+IF(F42="X",4)+IF(G42="X",5)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N42" s="20"/>
       <c r="O42" s="20"/>
@@ -3147,16 +3222,19 @@
       <c r="AC42" s="20"/>
       <c r="AD42" s="20"/>
     </row>
-    <row r="43" spans="1:30" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:30" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="5" t="s">
         <v>68</v>
       </c>
       <c r="B43" s="19" t="s">
         <v>106</v>
       </c>
+      <c r="D43" t="s">
+        <v>44</v>
+      </c>
       <c r="H43">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N43" s="20"/>
       <c r="O43" s="20"/>
@@ -3176,7 +3254,7 @@
       <c r="AC43" s="20"/>
       <c r="AD43" s="20"/>
     </row>
-    <row r="44" spans="1:30" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:30" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="5"/>
       <c r="B44" s="4" t="s">
         <v>34</v>
@@ -3199,16 +3277,19 @@
       <c r="AC44" s="20"/>
       <c r="AD44" s="20"/>
     </row>
-    <row r="45" spans="1:30" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:30" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="4" t="s">
         <v>69</v>
       </c>
       <c r="B45" s="19" t="s">
         <v>107</v>
       </c>
+      <c r="D45" t="s">
+        <v>44</v>
+      </c>
       <c r="H45">
         <f t="shared" ref="H45" si="7">IF(C45="X",1)+IF(D45="X",2)+IF(E45="X",3)+IF(F45="X",4)+IF(G45="X",5)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N45" s="20"/>
       <c r="O45" s="20"/>
@@ -3228,7 +3309,7 @@
       <c r="AC45" s="20"/>
       <c r="AD45" s="20"/>
     </row>
-    <row r="46" spans="1:30" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:30" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="5"/>
       <c r="B46" s="4" t="s">
         <v>37</v>
@@ -3251,16 +3332,19 @@
       <c r="AC46" s="20"/>
       <c r="AD46" s="20"/>
     </row>
-    <row r="47" spans="1:30" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:30" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="4" t="s">
         <v>70</v>
       </c>
       <c r="B47" s="7" t="s">
         <v>104</v>
       </c>
+      <c r="F47" t="s">
+        <v>44</v>
+      </c>
       <c r="H47">
         <f t="shared" ref="H47:H48" si="8">IF(C47="X",1)+IF(D47="X",2)+IF(E47="X",3)+IF(F47="X",4)+IF(G47="X",5)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N47" s="20"/>
       <c r="O47" s="20"/>
@@ -3280,20 +3364,19 @@
       <c r="AC47" s="20"/>
       <c r="AD47" s="20"/>
     </row>
-    <row r="48" spans="1:30" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:30" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="5" t="s">
         <v>134</v>
       </c>
       <c r="B48" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="G48">
-        <f ca="1">A39:H48</f>
-        <v>0</v>
+      <c r="D48" t="s">
+        <v>44</v>
       </c>
       <c r="H48">
-        <f t="shared" ca="1" si="8"/>
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>2</v>
       </c>
       <c r="N48" s="20"/>
       <c r="O48" s="20"/>
@@ -3313,7 +3396,7 @@
       <c r="AC48" s="20"/>
       <c r="AD48" s="20"/>
     </row>
-    <row r="49" spans="1:14" s="20" customFormat="1" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:14" s="20" customFormat="1" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B49" s="4" t="s">
         <v>23</v>
       </c>
@@ -3330,7 +3413,7 @@
       <c r="M49" s="21"/>
       <c r="N49" s="21"/>
     </row>
-    <row r="50" spans="1:14" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:14" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="4" t="s">
         <v>71</v>
       </c>
@@ -3342,7 +3425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:14" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:14" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="4" t="s">
         <v>72</v>
       </c>
@@ -3354,86 +3437,101 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:14" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:14" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="5"/>
       <c r="B52" s="4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="53" spans="1:14" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:14" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="4" t="s">
         <v>73</v>
       </c>
       <c r="B53" s="7" t="s">
         <v>112</v>
       </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
       <c r="H53">
         <f t="shared" ref="H53:H54" si="10">IF(C53="X",1)+IF(D53="X",2)+IF(E53="X",3)+IF(F53="X",4)+IF(G53="X",5)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:14" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" s="5" t="s">
         <v>74</v>
       </c>
       <c r="B54" s="19" t="s">
         <v>113</v>
       </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
       <c r="H54">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:14" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="5"/>
       <c r="B55" s="4" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="56" spans="1:14" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:14" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" s="4" t="s">
         <v>75</v>
       </c>
       <c r="B56" s="19" t="s">
         <v>115</v>
       </c>
+      <c r="C56" t="s">
+        <v>44</v>
+      </c>
       <c r="H56">
         <f t="shared" ref="H56:H57" si="11">IF(C56="X",1)+IF(D56="X",2)+IF(E56="X",3)+IF(F56="X",4)+IF(G56="X",5)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:14" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A57" s="4" t="s">
         <v>76</v>
       </c>
       <c r="B57" s="7" t="s">
         <v>114</v>
       </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
       <c r="H57">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:14" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" s="5"/>
       <c r="B58" s="4" t="s">
         <v>37</v>
       </c>
       <c r="D58" s="17"/>
     </row>
-    <row r="59" spans="1:14" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:14" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A59" s="4" t="s">
         <v>129</v>
       </c>
       <c r="B59" s="7" t="s">
         <v>109</v>
       </c>
+      <c r="F59" t="s">
+        <v>44</v>
+      </c>
       <c r="H59">
         <f t="shared" ref="H59" si="12">IF(C59="X",1)+IF(D59="X",2)+IF(E59="X",3)+IF(F59="X",4)+IF(G59="X",5)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:14" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="20"/>
       <c r="B60" s="4" t="s">
         <v>23</v>
@@ -3445,95 +3543,113 @@
       <c r="G60" s="21"/>
       <c r="H60" s="21"/>
     </row>
-    <row r="61" spans="1:14" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:14" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="4" t="s">
         <v>117</v>
       </c>
       <c r="B61" s="18" t="s">
         <v>121</v>
       </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
       <c r="H61">
         <f t="shared" ref="H61:H62" si="13">IF(C61="X",1)+IF(D61="X",2)+IF(E61="X",3)+IF(F61="X",4)+IF(G61="X",5)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:14" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" s="4" t="s">
         <v>118</v>
       </c>
       <c r="B62" s="7" t="s">
         <v>122</v>
       </c>
+      <c r="C62" t="s">
+        <v>44</v>
+      </c>
       <c r="H62">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:14" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="5"/>
       <c r="B63" s="4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="64" spans="1:14" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:14" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A64" s="4" t="s">
         <v>119</v>
       </c>
       <c r="B64" s="7" t="s">
         <v>123</v>
       </c>
+      <c r="D64" t="s">
+        <v>44</v>
+      </c>
       <c r="H64">
         <f t="shared" ref="H64" si="14">IF(C64="X",1)+IF(D64="X",2)+IF(E64="X",3)+IF(F64="X",4)+IF(G64="X",5)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A65" s="5"/>
       <c r="B65" s="4" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="66" spans="1:8" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:8" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A66" s="4" t="s">
         <v>120</v>
       </c>
       <c r="B66" s="7" t="s">
         <v>124</v>
       </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
       <c r="H66">
         <f t="shared" ref="H66" si="15">IF(C66="X",1)+IF(D66="X",2)+IF(E66="X",3)+IF(F66="X",4)+IF(G66="X",5)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A67" s="5"/>
       <c r="B67" s="4" t="s">
         <v>37</v>
       </c>
       <c r="D67" s="17"/>
     </row>
-    <row r="68" spans="1:8" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:8" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A68" s="4" t="s">
         <v>116</v>
       </c>
       <c r="B68" s="7" t="s">
         <v>125</v>
       </c>
+      <c r="D68" t="s">
+        <v>44</v>
+      </c>
       <c r="H68">
         <f>IF(C68="X",1)+IF(D68="X",2)+IF(E68="X",3)+IF(F68="X",4)+IF(G68="X",5)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A69" s="4" t="s">
         <v>130</v>
       </c>
       <c r="B69" s="7" t="s">
         <v>126</v>
       </c>
+      <c r="F69" t="s">
+        <v>44</v>
+      </c>
       <c r="H69">
         <f>IF(C69="X",1)+IF(D69="X",2)+IF(E69="X",3)+IF(F69="X",4)+IF(G69="X",5)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -3546,20 +3662,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:N94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="63" workbookViewId="0">
-      <selection activeCell="A72" sqref="A72"/>
+    <sheetView topLeftCell="A55" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B71" sqref="B71"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="24" customWidth="1"/>
-    <col min="2" max="2" width="70.125" customWidth="1"/>
-    <col min="4" max="4" width="13.125" customWidth="1"/>
+    <col min="2" max="2" width="70.09765625" customWidth="1"/>
+    <col min="4" max="4" width="13.09765625" customWidth="1"/>
     <col min="7" max="7" width="10.5" customWidth="1"/>
-    <col min="8" max="8" width="18.875" customWidth="1"/>
+    <col min="8" max="8" width="18.8984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="142.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="147.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B1" s="4" t="s">
         <v>23</v>
       </c>
@@ -3585,7 +3701,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>20</v>
       </c>
@@ -3593,80 +3709,83 @@
         <v>77</v>
       </c>
       <c r="F2" t="s">
-        <v>44</v>
+        <v>128</v>
       </c>
       <c r="H2">
         <f>IF(C2="X",1)+IF(D2="X",2)+IF(E2="X",3)+IF(F2="X",4)+IF(G2="X",5)</f>
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>21</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="G3" t="s">
-        <v>44</v>
+      <c r="F3" t="s">
+        <v>128</v>
       </c>
       <c r="H3">
         <f t="shared" ref="H3:H26" si="0">IF(C3="X",1)+IF(D3="X",2)+IF(E3="X",3)+IF(F3="X",4)+IF(G3="X",5)</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
         <v>22</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="F4" t="s">
-        <v>44</v>
+      <c r="D4" t="s">
+        <v>128</v>
       </c>
       <c r="H4">
         <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="5"/>
       <c r="B5" s="4" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E5" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
         <v>31</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="C6" t="s">
-        <v>44</v>
+      <c r="F6" t="s">
+        <v>128</v>
       </c>
       <c r="H6">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
         <v>32</v>
       </c>
       <c r="B7" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="C7" t="s">
-        <v>44</v>
+      <c r="F7" t="s">
+        <v>128</v>
       </c>
       <c r="H7">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
         <v>33</v>
       </c>
@@ -3674,32 +3793,35 @@
         <v>82</v>
       </c>
       <c r="D8" t="s">
-        <v>44</v>
+        <v>128</v>
       </c>
       <c r="H8">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="5"/>
       <c r="B9" s="4" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="4" t="s">
         <v>35</v>
       </c>
       <c r="B10" s="7" t="s">
         <v>84</v>
       </c>
+      <c r="F10" t="s">
+        <v>128</v>
+      </c>
       <c r="H10">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
         <v>36</v>
       </c>
@@ -3707,43 +3829,52 @@
         <v>83</v>
       </c>
       <c r="C11" s="17"/>
+      <c r="F11" t="s">
+        <v>128</v>
+      </c>
       <c r="H11">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="5"/>
       <c r="B12" s="4" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="4" t="s">
         <v>38</v>
       </c>
       <c r="B13" s="7" t="s">
         <v>86</v>
       </c>
+      <c r="E13" t="s">
+        <v>128</v>
+      </c>
       <c r="H13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I13" s="6"/>
     </row>
-    <row r="14" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="5" t="s">
         <v>132</v>
       </c>
       <c r="B14" s="7" t="s">
         <v>85</v>
       </c>
+      <c r="D14" t="s">
+        <v>128</v>
+      </c>
       <c r="H14">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="22"/>
       <c r="B15" s="4" t="s">
         <v>23</v>
@@ -3756,43 +3887,52 @@
       <c r="H15" s="23"/>
       <c r="I15" s="20"/>
     </row>
-    <row r="16" spans="1:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B16" s="18" t="s">
         <v>87</v>
       </c>
+      <c r="F16" t="s">
+        <v>128</v>
+      </c>
       <c r="H16">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="5" t="s">
         <v>18</v>
       </c>
       <c r="B17" s="18" t="s">
         <v>88</v>
       </c>
+      <c r="E17" t="s">
+        <v>128</v>
+      </c>
       <c r="H17">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="4" t="s">
         <v>19</v>
       </c>
       <c r="B18" s="7" t="s">
         <v>89</v>
       </c>
+      <c r="D18" t="s">
+        <v>128</v>
+      </c>
       <c r="H18">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="5"/>
       <c r="B19" s="4" t="s">
         <v>30</v>
@@ -3802,80 +3942,95 @@
       <c r="L19" s="20"/>
       <c r="M19" s="20"/>
     </row>
-    <row r="20" spans="1:13" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="4" t="s">
         <v>39</v>
       </c>
       <c r="B20" s="7" t="s">
         <v>91</v>
       </c>
+      <c r="D20" t="s">
+        <v>128</v>
+      </c>
       <c r="H20">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="5" t="s">
         <v>40</v>
       </c>
       <c r="B21" s="19" t="s">
         <v>90</v>
       </c>
+      <c r="D21" t="s">
+        <v>128</v>
+      </c>
       <c r="H21">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="5"/>
       <c r="B22" s="4" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="4" t="s">
         <v>41</v>
       </c>
       <c r="B23" s="7" t="s">
         <v>94</v>
       </c>
+      <c r="E23" t="s">
+        <v>128</v>
+      </c>
       <c r="H23">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="5"/>
       <c r="B24" s="4" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="4" t="s">
         <v>42</v>
       </c>
       <c r="B25" s="7" t="s">
         <v>92</v>
       </c>
+      <c r="D25" t="s">
+        <v>128</v>
+      </c>
       <c r="H25">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25" s="6"/>
     </row>
-    <row r="26" spans="1:13" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="5" t="s">
         <v>133</v>
       </c>
       <c r="B26" s="7" t="s">
         <v>93</v>
       </c>
+      <c r="D26" t="s">
+        <v>128</v>
+      </c>
       <c r="H26">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="22"/>
       <c r="B27" s="4" t="s">
         <v>23</v>
@@ -3888,113 +4043,134 @@
       <c r="H27" s="20"/>
       <c r="I27" s="20"/>
     </row>
-    <row r="28" spans="1:13" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="4" t="s">
         <v>58</v>
       </c>
       <c r="B28" s="18" t="s">
         <v>95</v>
       </c>
+      <c r="E28" t="s">
+        <v>128</v>
+      </c>
       <c r="H28">
         <f t="shared" ref="H28:H30" si="1">IF(C28="X",1)+IF(D28="X",2)+IF(E28="X",3)+IF(F28="X",4)+IF(G28="X",5)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="5" t="s">
         <v>59</v>
       </c>
       <c r="B29" s="18" t="s">
         <v>97</v>
       </c>
+      <c r="E29" t="s">
+        <v>128</v>
+      </c>
       <c r="H29">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="4" t="s">
         <v>60</v>
       </c>
       <c r="B30" s="7" t="s">
         <v>96</v>
       </c>
+      <c r="E30" t="s">
+        <v>128</v>
+      </c>
       <c r="H30">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="5"/>
       <c r="B31" s="4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:13" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:13" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="4" t="s">
         <v>61</v>
       </c>
       <c r="B32" s="18" t="s">
         <v>99</v>
       </c>
+      <c r="E32" t="s">
+        <v>128</v>
+      </c>
       <c r="H32">
         <f t="shared" ref="H32:H33" si="2">IF(C32="X",1)+IF(D32="X",2)+IF(E32="X",3)+IF(F32="X",4)+IF(G32="X",5)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="5" t="s">
         <v>62</v>
       </c>
       <c r="B33" s="18" t="s">
         <v>98</v>
       </c>
+      <c r="F33" t="s">
+        <v>128</v>
+      </c>
       <c r="H33">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="5"/>
       <c r="B34" s="4" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="35" spans="1:13" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:13" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="5" t="s">
         <v>63</v>
       </c>
       <c r="B35" s="7" t="s">
         <v>100</v>
       </c>
+      <c r="D35" t="s">
+        <v>128</v>
+      </c>
       <c r="H35">
         <f t="shared" ref="H35" si="3">IF(C35="X",1)+IF(D35="X",2)+IF(E35="X",3)+IF(F35="X",4)+IF(G35="X",5)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="5"/>
       <c r="B36" s="4" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="37" spans="1:13" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:13" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="4" t="s">
         <v>64</v>
       </c>
       <c r="B37" s="7" t="s">
         <v>101</v>
       </c>
+      <c r="E37" t="s">
+        <v>128</v>
+      </c>
       <c r="H37">
         <f t="shared" ref="H37" si="4">IF(C37="X",1)+IF(D37="X",2)+IF(E37="X",3)+IF(F37="X",4)+IF(G37="X",5)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J37" s="20"/>
       <c r="K37" s="20"/>
       <c r="L37" s="20"/>
       <c r="M37" s="20"/>
     </row>
-    <row r="38" spans="1:13" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:13" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="20"/>
       <c r="B38" s="4" t="s">
         <v>23</v>
@@ -4007,85 +4183,100 @@
       <c r="H38" s="20"/>
       <c r="I38" s="20"/>
     </row>
-    <row r="39" spans="1:13" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:13" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="4" t="s">
         <v>65</v>
       </c>
       <c r="B39" s="18" t="s">
         <v>103</v>
       </c>
+      <c r="F39" t="s">
+        <v>128</v>
+      </c>
       <c r="H39">
         <f t="shared" ref="H39:H40" si="5">IF(C39="X",1)+IF(D39="X",2)+IF(E39="X",3)+IF(F39="X",4)+IF(G39="X",5)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="4" t="s">
         <v>66</v>
       </c>
       <c r="B40" s="7" t="s">
         <v>102</v>
       </c>
+      <c r="D40" t="s">
+        <v>128</v>
+      </c>
       <c r="H40">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="5"/>
       <c r="B41" s="4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="42" spans="1:13" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:13" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="4" t="s">
         <v>67</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>105</v>
+        <v>135</v>
+      </c>
+      <c r="F42" t="s">
+        <v>128</v>
       </c>
       <c r="H42">
         <f t="shared" ref="H42:H43" si="6">IF(C42="X",1)+IF(D42="X",2)+IF(E42="X",3)+IF(F42="X",4)+IF(G42="X",5)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="5" t="s">
         <v>68</v>
       </c>
       <c r="B43" s="19" t="s">
         <v>106</v>
       </c>
+      <c r="D43" t="s">
+        <v>128</v>
+      </c>
       <c r="H43">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="5"/>
       <c r="B44" s="4" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="45" spans="1:13" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:13" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="4" t="s">
         <v>69</v>
       </c>
       <c r="B45" s="19" t="s">
         <v>107</v>
       </c>
+      <c r="E45" t="s">
+        <v>128</v>
+      </c>
       <c r="H45">
         <f t="shared" ref="H45" si="7">IF(C45="X",1)+IF(D45="X",2)+IF(E45="X",3)+IF(F45="X",4)+IF(G45="X",5)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="5"/>
       <c r="B46" s="4" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="47" spans="1:13" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:13" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="4" t="s">
         <v>70</v>
       </c>
@@ -4097,23 +4288,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:13" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:13" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="5" t="s">
         <v>134</v>
       </c>
       <c r="B48" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="G48">
-        <f ca="1">A39:H48</f>
+      <c r="H48">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="H48">
-        <f t="shared" ca="1" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="49" spans="1:13" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="20"/>
       <c r="B49" s="4" t="s">
         <v>23</v>
@@ -4126,7 +4313,7 @@
       <c r="H49" s="21"/>
       <c r="I49" s="21"/>
     </row>
-    <row r="50" spans="1:13" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:13" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="4" t="s">
         <v>71</v>
       </c>
@@ -4138,7 +4325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:13" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:13" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="4" t="s">
         <v>72</v>
       </c>
@@ -4150,13 +4337,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:13" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:13" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="5"/>
       <c r="B52" s="4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="53" spans="1:13" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:13" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="4" t="s">
         <v>73</v>
       </c>
@@ -4169,7 +4356,7 @@
       </c>
       <c r="K53" s="17"/>
     </row>
-    <row r="54" spans="1:13" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:13" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" s="5" t="s">
         <v>74</v>
       </c>
@@ -4181,7 +4368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:13" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:13" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="5"/>
       <c r="B55" s="4" t="s">
         <v>34</v>
@@ -4191,50 +4378,59 @@
       <c r="L55" s="20"/>
       <c r="M55" s="20"/>
     </row>
-    <row r="56" spans="1:13" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:13" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" s="4" t="s">
         <v>75</v>
       </c>
       <c r="B56" s="19" t="s">
         <v>115</v>
       </c>
+      <c r="D56" t="s">
+        <v>128</v>
+      </c>
       <c r="H56">
         <f t="shared" ref="H56:H57" si="11">IF(C56="X",1)+IF(D56="X",2)+IF(E56="X",3)+IF(F56="X",4)+IF(G56="X",5)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A57" s="4" t="s">
         <v>76</v>
       </c>
       <c r="B57" s="7" t="s">
         <v>114</v>
       </c>
+      <c r="D57" t="s">
+        <v>128</v>
+      </c>
       <c r="H57">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" s="5"/>
       <c r="B58" s="4" t="s">
         <v>37</v>
       </c>
       <c r="D58" s="17"/>
     </row>
-    <row r="59" spans="1:13" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:13" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A59" s="4" t="s">
         <v>129</v>
       </c>
       <c r="B59" s="7" t="s">
         <v>109</v>
       </c>
+      <c r="F59" t="s">
+        <v>128</v>
+      </c>
       <c r="H59">
         <f t="shared" ref="H59" si="12">IF(C59="X",1)+IF(D59="X",2)+IF(E59="X",3)+IF(F59="X",4)+IF(G59="X",5)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="20"/>
       <c r="B60" s="4" t="s">
         <v>23</v>
@@ -4246,108 +4442,126 @@
       <c r="G60" s="21"/>
       <c r="H60" s="21"/>
     </row>
-    <row r="61" spans="1:13" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:13" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="4" t="s">
         <v>117</v>
       </c>
       <c r="B61" s="18" t="s">
         <v>121</v>
       </c>
+      <c r="D61" t="s">
+        <v>128</v>
+      </c>
       <c r="H61">
         <f t="shared" ref="H61:H62" si="13">IF(C61="X",1)+IF(D61="X",2)+IF(E61="X",3)+IF(F61="X",4)+IF(G61="X",5)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:13" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" s="4" t="s">
         <v>118</v>
       </c>
       <c r="B62" s="7" t="s">
         <v>122</v>
       </c>
+      <c r="D62" t="s">
+        <v>128</v>
+      </c>
       <c r="H62">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:13" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="5"/>
       <c r="B63" s="4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="64" spans="1:13" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:13" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A64" s="4" t="s">
         <v>119</v>
       </c>
       <c r="B64" s="7" t="s">
         <v>123</v>
       </c>
+      <c r="F64" t="s">
+        <v>128</v>
+      </c>
       <c r="H64">
         <f t="shared" ref="H64" si="14">IF(C64="X",1)+IF(D64="X",2)+IF(E64="X",3)+IF(F64="X",4)+IF(G64="X",5)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:14" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A65" s="5"/>
       <c r="B65" s="4" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="66" spans="1:14" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:14" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A66" s="4" t="s">
         <v>120</v>
       </c>
       <c r="B66" s="7" t="s">
         <v>124</v>
       </c>
+      <c r="F66" t="s">
+        <v>128</v>
+      </c>
       <c r="H66">
         <f t="shared" ref="H66" si="15">IF(C66="X",1)+IF(D66="X",2)+IF(E66="X",3)+IF(F66="X",4)+IF(G66="X",5)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:14" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A67" s="5"/>
       <c r="B67" s="4" t="s">
         <v>37</v>
       </c>
       <c r="D67" s="17"/>
     </row>
-    <row r="68" spans="1:14" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:14" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A68" s="4" t="s">
         <v>116</v>
       </c>
       <c r="B68" s="7" t="s">
         <v>125</v>
       </c>
+      <c r="D68" t="s">
+        <v>128</v>
+      </c>
       <c r="H68">
         <f>IF(C68="X",1)+IF(D68="X",2)+IF(E68="X",3)+IF(F68="X",4)+IF(G68="X",5)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:14" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A69" s="4" t="s">
         <v>130</v>
       </c>
       <c r="B69" s="7" t="s">
         <v>126</v>
       </c>
+      <c r="F69" t="s">
+        <v>128</v>
+      </c>
       <c r="H69">
         <f>IF(C69="X",1)+IF(D69="X",2)+IF(E69="X",3)+IF(F69="X",4)+IF(G69="X",5)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:14" ht="20.25" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" ht="21" x14ac:dyDescent="0.3">
       <c r="A70" s="25"/>
       <c r="B70" s="32"/>
       <c r="C70" s="29"/>
     </row>
-    <row r="71" spans="1:14" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:14" ht="21" x14ac:dyDescent="0.3">
       <c r="A71" s="25"/>
       <c r="B71" s="32"/>
       <c r="C71" s="29"/>
     </row>
-    <row r="72" spans="1:14" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:14" ht="21" x14ac:dyDescent="0.3">
       <c r="A72" s="37"/>
       <c r="B72" s="25"/>
       <c r="C72" s="36"/>
@@ -4363,113 +4577,113 @@
       <c r="M72" s="20"/>
       <c r="N72" s="20"/>
     </row>
-    <row r="73" spans="1:14" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:14" ht="21" x14ac:dyDescent="0.3">
       <c r="A73" s="25"/>
       <c r="B73" s="33"/>
       <c r="C73" s="29"/>
     </row>
-    <row r="74" spans="1:14" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:14" ht="21" x14ac:dyDescent="0.3">
       <c r="A74" s="25"/>
       <c r="B74" s="33"/>
       <c r="C74" s="29"/>
     </row>
-    <row r="75" spans="1:14" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:14" ht="21" x14ac:dyDescent="0.3">
       <c r="A75" s="25"/>
       <c r="B75" s="32"/>
       <c r="C75" s="29"/>
     </row>
-    <row r="76" spans="1:14" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:14" ht="21" x14ac:dyDescent="0.3">
       <c r="A76" s="25"/>
       <c r="B76" s="32"/>
       <c r="C76" s="29"/>
     </row>
-    <row r="77" spans="1:14" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:14" ht="21" x14ac:dyDescent="0.3">
       <c r="A77" s="25"/>
       <c r="B77" s="25"/>
       <c r="C77" s="29"/>
     </row>
-    <row r="78" spans="1:14" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:14" ht="21" x14ac:dyDescent="0.3">
       <c r="A78" s="25"/>
       <c r="B78" s="32"/>
       <c r="C78" s="29"/>
     </row>
-    <row r="79" spans="1:14" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:14" ht="21" x14ac:dyDescent="0.3">
       <c r="A79" s="25"/>
       <c r="B79" s="34"/>
       <c r="C79" s="29"/>
     </row>
-    <row r="80" spans="1:14" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:14" ht="21" x14ac:dyDescent="0.3">
       <c r="A80" s="25"/>
       <c r="B80" s="32"/>
       <c r="C80" s="29"/>
     </row>
-    <row r="81" spans="1:4" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" ht="21" x14ac:dyDescent="0.3">
       <c r="A81" s="25"/>
       <c r="B81" s="32"/>
       <c r="C81" s="29"/>
     </row>
-    <row r="82" spans="1:4" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" ht="21" x14ac:dyDescent="0.3">
       <c r="A82" s="25"/>
       <c r="B82" s="25"/>
       <c r="C82" s="29"/>
     </row>
-    <row r="83" spans="1:4" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" ht="21" x14ac:dyDescent="0.3">
       <c r="A83" s="25"/>
       <c r="B83" s="35"/>
       <c r="C83" s="29"/>
     </row>
-    <row r="84" spans="1:4" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" ht="21" x14ac:dyDescent="0.3">
       <c r="A84" s="25"/>
       <c r="B84" s="32"/>
       <c r="C84" s="37"/>
     </row>
-    <row r="85" spans="1:4" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" ht="21" x14ac:dyDescent="0.3">
       <c r="A85" s="25"/>
       <c r="B85" s="32"/>
       <c r="C85" s="29"/>
     </row>
-    <row r="86" spans="1:4" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" ht="21" x14ac:dyDescent="0.3">
       <c r="A86" s="25"/>
       <c r="B86" s="25"/>
       <c r="C86" s="29"/>
       <c r="D86" s="17"/>
     </row>
-    <row r="87" spans="1:4" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4" ht="21" x14ac:dyDescent="0.3">
       <c r="A87" s="25"/>
       <c r="B87" s="32"/>
       <c r="C87" s="29"/>
     </row>
-    <row r="88" spans="1:4" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4" ht="21" x14ac:dyDescent="0.3">
       <c r="A88" s="25"/>
       <c r="B88" s="32"/>
       <c r="C88" s="29"/>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89" s="29"/>
       <c r="B89" s="29"/>
       <c r="C89" s="29"/>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90" s="29"/>
       <c r="B90" s="29"/>
       <c r="C90" s="29"/>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91" s="29"/>
       <c r="B91" s="29"/>
       <c r="C91" s="29"/>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92" s="29"/>
       <c r="B92" s="29"/>
       <c r="C92" s="29"/>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93" s="29"/>
       <c r="B93" s="29"/>
       <c r="C93" s="29"/>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94" s="29"/>
       <c r="B94" s="29"/>
       <c r="C94" s="29"/>
@@ -4483,20 +4697,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:I90"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
-      <selection activeCell="A69" sqref="A69"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H77" sqref="H77"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="24" customWidth="1"/>
-    <col min="2" max="2" width="70.125" customWidth="1"/>
-    <col min="4" max="4" width="13.125" customWidth="1"/>
+    <col min="2" max="2" width="70.09765625" customWidth="1"/>
+    <col min="4" max="4" width="13.09765625" customWidth="1"/>
     <col min="7" max="7" width="10.5" customWidth="1"/>
-    <col min="8" max="8" width="18.875" customWidth="1"/>
+    <col min="8" max="8" width="18.8984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="142.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="147.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B1" s="4" t="s">
         <v>23</v>
       </c>
@@ -4522,121 +4736,124 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>20</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="F2" t="s">
-        <v>44</v>
+      <c r="D2" t="s">
+        <v>128</v>
       </c>
       <c r="H2">
         <f>IF(C2="X",1)+IF(D2="X",2)+IF(E2="X",3)+IF(F2="X",4)+IF(G2="X",5)</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>21</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="G3" t="s">
-        <v>44</v>
+      <c r="E3" t="s">
+        <v>128</v>
       </c>
       <c r="H3">
         <f t="shared" ref="H3:H26" si="0">IF(C3="X",1)+IF(D3="X",2)+IF(E3="X",3)+IF(F3="X",4)+IF(G3="X",5)</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
         <v>22</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="F4" t="s">
-        <v>44</v>
+      <c r="D4" t="s">
+        <v>128</v>
       </c>
       <c r="H4">
         <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="5"/>
       <c r="B5" s="4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
         <v>31</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="C6" t="s">
-        <v>44</v>
+      <c r="G6" t="s">
+        <v>128</v>
       </c>
       <c r="H6">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
         <v>32</v>
       </c>
       <c r="B7" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="C7" t="s">
-        <v>44</v>
+      <c r="F7" t="s">
+        <v>128</v>
       </c>
       <c r="H7">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
         <v>33</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="D8" t="s">
-        <v>44</v>
+      <c r="E8" t="s">
+        <v>128</v>
       </c>
       <c r="H8">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="5"/>
       <c r="B9" s="4" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="4" t="s">
         <v>35</v>
       </c>
       <c r="B10" s="7" t="s">
         <v>84</v>
       </c>
+      <c r="F10" t="s">
+        <v>128</v>
+      </c>
       <c r="H10">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
         <v>36</v>
       </c>
@@ -4644,43 +4861,52 @@
         <v>83</v>
       </c>
       <c r="C11" s="17"/>
+      <c r="F11" t="s">
+        <v>128</v>
+      </c>
       <c r="H11">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="5"/>
       <c r="B12" s="4" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="4" t="s">
         <v>38</v>
       </c>
       <c r="B13" s="7" t="s">
         <v>86</v>
       </c>
+      <c r="E13" t="s">
+        <v>128</v>
+      </c>
       <c r="H13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I13" s="6"/>
     </row>
-    <row r="14" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="5" t="s">
         <v>132</v>
       </c>
       <c r="B14" s="7" t="s">
         <v>85</v>
       </c>
+      <c r="E14" t="s">
+        <v>128</v>
+      </c>
       <c r="H14">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="22"/>
       <c r="B15" s="4" t="s">
         <v>23</v>
@@ -4693,122 +4919,146 @@
       <c r="H15" s="23"/>
       <c r="I15" s="20"/>
     </row>
-    <row r="16" spans="1:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B16" s="18" t="s">
         <v>87</v>
       </c>
+      <c r="E16" t="s">
+        <v>128</v>
+      </c>
       <c r="H16">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="5" t="s">
         <v>18</v>
       </c>
       <c r="B17" s="18" t="s">
         <v>88</v>
       </c>
+      <c r="F17" t="s">
+        <v>128</v>
+      </c>
       <c r="H17">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="4" t="s">
         <v>19</v>
       </c>
       <c r="B18" s="7" t="s">
         <v>89</v>
       </c>
+      <c r="E18" t="s">
+        <v>128</v>
+      </c>
       <c r="H18">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="5"/>
       <c r="B19" s="4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="4" t="s">
         <v>39</v>
       </c>
       <c r="B20" s="7" t="s">
         <v>91</v>
       </c>
+      <c r="F20" t="s">
+        <v>128</v>
+      </c>
       <c r="H20">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="5" t="s">
         <v>40</v>
       </c>
       <c r="B21" s="19" t="s">
         <v>90</v>
       </c>
+      <c r="F21" t="s">
+        <v>128</v>
+      </c>
       <c r="H21">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="5"/>
       <c r="B22" s="4" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="4" t="s">
         <v>41</v>
       </c>
       <c r="B23" s="7" t="s">
         <v>94</v>
       </c>
+      <c r="E23" t="s">
+        <v>128</v>
+      </c>
       <c r="H23">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="5"/>
       <c r="B24" s="4" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="4" t="s">
         <v>42</v>
       </c>
       <c r="B25" s="7" t="s">
         <v>92</v>
       </c>
+      <c r="D25" t="s">
+        <v>128</v>
+      </c>
       <c r="H25">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25" s="6"/>
     </row>
-    <row r="26" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="5" t="s">
         <v>133</v>
       </c>
       <c r="B26" s="7" t="s">
         <v>93</v>
       </c>
+      <c r="D26" t="s">
+        <v>128</v>
+      </c>
       <c r="H26">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="22"/>
       <c r="B27" s="4" t="s">
         <v>23</v>
@@ -4821,109 +5071,130 @@
       <c r="H27" s="20"/>
       <c r="I27" s="20"/>
     </row>
-    <row r="28" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="4" t="s">
         <v>58</v>
       </c>
       <c r="B28" s="18" t="s">
         <v>95</v>
       </c>
+      <c r="E28" t="s">
+        <v>128</v>
+      </c>
       <c r="H28">
         <f t="shared" ref="H28:H30" si="1">IF(C28="X",1)+IF(D28="X",2)+IF(E28="X",3)+IF(F28="X",4)+IF(G28="X",5)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="5" t="s">
         <v>59</v>
       </c>
       <c r="B29" s="18" t="s">
         <v>97</v>
       </c>
+      <c r="E29" t="s">
+        <v>128</v>
+      </c>
       <c r="H29">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="4" t="s">
         <v>60</v>
       </c>
       <c r="B30" s="7" t="s">
         <v>96</v>
       </c>
+      <c r="E30" t="s">
+        <v>128</v>
+      </c>
       <c r="H30">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="5"/>
       <c r="B31" s="4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="4" t="s">
         <v>61</v>
       </c>
       <c r="B32" s="18" t="s">
         <v>99</v>
       </c>
+      <c r="D32" t="s">
+        <v>128</v>
+      </c>
       <c r="H32">
         <f t="shared" ref="H32:H33" si="2">IF(C32="X",1)+IF(D32="X",2)+IF(E32="X",3)+IF(F32="X",4)+IF(G32="X",5)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="5" t="s">
         <v>62</v>
       </c>
       <c r="B33" s="18" t="s">
         <v>98</v>
       </c>
+      <c r="D33" t="s">
+        <v>128</v>
+      </c>
       <c r="H33">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="5"/>
       <c r="B34" s="4" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="5" t="s">
         <v>63</v>
       </c>
       <c r="B35" s="7" t="s">
         <v>100</v>
       </c>
+      <c r="E35" t="s">
+        <v>128</v>
+      </c>
       <c r="H35">
         <f t="shared" ref="H35" si="3">IF(C35="X",1)+IF(D35="X",2)+IF(E35="X",3)+IF(F35="X",4)+IF(G35="X",5)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="5"/>
       <c r="B36" s="4" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="4" t="s">
         <v>64</v>
       </c>
       <c r="B37" s="7" t="s">
         <v>101</v>
       </c>
+      <c r="E37" t="s">
+        <v>128</v>
+      </c>
       <c r="H37">
         <f t="shared" ref="H37" si="4">IF(C37="X",1)+IF(D37="X",2)+IF(E37="X",3)+IF(F37="X",4)+IF(G37="X",5)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="20"/>
       <c r="B38" s="4" t="s">
         <v>23</v>
@@ -4936,113 +5207,130 @@
       <c r="H38" s="20"/>
       <c r="I38" s="20"/>
     </row>
-    <row r="39" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="4" t="s">
         <v>65</v>
       </c>
       <c r="B39" s="18" t="s">
         <v>103</v>
       </c>
+      <c r="E39" t="s">
+        <v>128</v>
+      </c>
       <c r="H39">
         <f t="shared" ref="H39:H40" si="5">IF(C39="X",1)+IF(D39="X",2)+IF(E39="X",3)+IF(F39="X",4)+IF(G39="X",5)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="4" t="s">
         <v>66</v>
       </c>
       <c r="B40" s="7" t="s">
         <v>102</v>
       </c>
+      <c r="D40" t="s">
+        <v>128</v>
+      </c>
       <c r="H40">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="5"/>
       <c r="B41" s="4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="4" t="s">
         <v>67</v>
       </c>
       <c r="B42" s="7" t="s">
         <v>105</v>
       </c>
+      <c r="F42" t="s">
+        <v>128</v>
+      </c>
       <c r="H42">
         <f t="shared" ref="H42:H43" si="6">IF(C42="X",1)+IF(D42="X",2)+IF(E42="X",3)+IF(F42="X",4)+IF(G42="X",5)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="5" t="s">
         <v>68</v>
       </c>
       <c r="B43" s="19" t="s">
         <v>106</v>
       </c>
+      <c r="D43" t="s">
+        <v>128</v>
+      </c>
       <c r="H43">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="5"/>
       <c r="B44" s="4" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="45" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="4" t="s">
         <v>69</v>
       </c>
       <c r="B45" s="19" t="s">
         <v>107</v>
       </c>
+      <c r="D45" t="s">
+        <v>128</v>
+      </c>
       <c r="H45">
         <f t="shared" ref="H45" si="7">IF(C45="X",1)+IF(D45="X",2)+IF(E45="X",3)+IF(F45="X",4)+IF(G45="X",5)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="5"/>
       <c r="B46" s="4" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="47" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="4" t="s">
         <v>70</v>
       </c>
       <c r="B47" s="7" t="s">
         <v>104</v>
       </c>
+      <c r="F47" t="s">
+        <v>128</v>
+      </c>
       <c r="H47">
         <f t="shared" ref="H47:H48" si="8">IF(C47="X",1)+IF(D47="X",2)+IF(E47="X",3)+IF(F47="X",4)+IF(G47="X",5)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="5" t="s">
         <v>134</v>
       </c>
       <c r="B48" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="G48">
-        <f ca="1">A39:H48</f>
-        <v>0</v>
+      <c r="E48" t="s">
+        <v>128</v>
       </c>
       <c r="H48">
-        <f t="shared" ca="1" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="20"/>
       <c r="B49" s="4" t="s">
         <v>23</v>
@@ -5055,110 +5343,131 @@
       <c r="H49" s="21"/>
       <c r="I49" s="21"/>
     </row>
-    <row r="50" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="4" t="s">
         <v>71</v>
       </c>
       <c r="B50" s="18" t="s">
         <v>110</v>
       </c>
+      <c r="F50" t="s">
+        <v>128</v>
+      </c>
       <c r="H50">
         <f t="shared" ref="H50:H51" si="9">IF(C50="X",1)+IF(D50="X",2)+IF(E50="X",3)+IF(F50="X",4)+IF(G50="X",5)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="4" t="s">
         <v>72</v>
       </c>
       <c r="B51" s="7" t="s">
         <v>108</v>
       </c>
+      <c r="E51" t="s">
+        <v>128</v>
+      </c>
       <c r="H51">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="5"/>
       <c r="B52" s="4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="53" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="4" t="s">
         <v>73</v>
       </c>
       <c r="B53" s="7" t="s">
         <v>112</v>
       </c>
+      <c r="F53" t="s">
+        <v>128</v>
+      </c>
       <c r="H53">
         <f t="shared" ref="H53:H54" si="10">IF(C53="X",1)+IF(D53="X",2)+IF(E53="X",3)+IF(F53="X",4)+IF(G53="X",5)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" s="5" t="s">
         <v>74</v>
       </c>
       <c r="B54" s="19" t="s">
         <v>113</v>
       </c>
+      <c r="F54" t="s">
+        <v>128</v>
+      </c>
       <c r="H54">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="5"/>
       <c r="B55" s="4" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="56" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" s="4" t="s">
         <v>75</v>
       </c>
       <c r="B56" s="19" t="s">
         <v>115</v>
       </c>
+      <c r="E56" t="s">
+        <v>128</v>
+      </c>
       <c r="H56">
         <f t="shared" ref="H56:H57" si="11">IF(C56="X",1)+IF(D56="X",2)+IF(E56="X",3)+IF(F56="X",4)+IF(G56="X",5)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A57" s="4" t="s">
         <v>76</v>
       </c>
       <c r="B57" s="7" t="s">
         <v>114</v>
       </c>
+      <c r="E57" t="s">
+        <v>128</v>
+      </c>
       <c r="H57">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" s="5"/>
       <c r="B58" s="4" t="s">
         <v>37</v>
       </c>
       <c r="D58" s="17"/>
     </row>
-    <row r="59" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A59" s="4" t="s">
         <v>129</v>
       </c>
       <c r="B59" s="7" t="s">
         <v>109</v>
       </c>
+      <c r="E59" t="s">
+        <v>128</v>
+      </c>
       <c r="H59">
         <f t="shared" ref="H59" si="12">IF(C59="X",1)+IF(D59="X",2)+IF(E59="X",3)+IF(F59="X",4)+IF(G59="X",5)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="20"/>
       <c r="B60" s="4" t="s">
         <v>23</v>
@@ -5170,108 +5479,126 @@
       <c r="G60" s="21"/>
       <c r="H60" s="21"/>
     </row>
-    <row r="61" spans="1:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:9" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="4" t="s">
         <v>117</v>
       </c>
       <c r="B61" s="18" t="s">
         <v>121</v>
       </c>
+      <c r="E61" t="s">
+        <v>128</v>
+      </c>
       <c r="H61">
         <f t="shared" ref="H61:H62" si="13">IF(C61="X",1)+IF(D61="X",2)+IF(E61="X",3)+IF(F61="X",4)+IF(G61="X",5)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" s="4" t="s">
         <v>118</v>
       </c>
       <c r="B62" s="7" t="s">
         <v>122</v>
       </c>
+      <c r="F62" t="s">
+        <v>128</v>
+      </c>
       <c r="H62">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="5"/>
       <c r="B63" s="4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="64" spans="1:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:9" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A64" s="4" t="s">
         <v>119</v>
       </c>
       <c r="B64" s="7" t="s">
         <v>123</v>
       </c>
+      <c r="F64" t="s">
+        <v>128</v>
+      </c>
       <c r="H64">
         <f t="shared" ref="H64" si="14">IF(C64="X",1)+IF(D64="X",2)+IF(E64="X",3)+IF(F64="X",4)+IF(G64="X",5)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A65" s="5"/>
       <c r="B65" s="4" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="66" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A66" s="4" t="s">
         <v>120</v>
       </c>
       <c r="B66" s="7" t="s">
         <v>124</v>
       </c>
+      <c r="F66" t="s">
+        <v>128</v>
+      </c>
       <c r="H66">
         <f t="shared" ref="H66" si="15">IF(C66="X",1)+IF(D66="X",2)+IF(E66="X",3)+IF(F66="X",4)+IF(G66="X",5)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A67" s="5"/>
       <c r="B67" s="4" t="s">
         <v>37</v>
       </c>
       <c r="D67" s="17"/>
     </row>
-    <row r="68" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A68" s="4" t="s">
         <v>116</v>
       </c>
       <c r="B68" s="7" t="s">
         <v>125</v>
       </c>
+      <c r="D68" t="s">
+        <v>128</v>
+      </c>
       <c r="H68">
         <f>IF(C68="X",1)+IF(D68="X",2)+IF(E68="X",3)+IF(F68="X",4)+IF(G68="X",5)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A69" s="4" t="s">
         <v>130</v>
       </c>
       <c r="B69" s="7" t="s">
         <v>126</v>
       </c>
+      <c r="E69" t="s">
+        <v>128</v>
+      </c>
       <c r="H69">
         <f>IF(C69="X",1)+IF(D69="X",2)+IF(E69="X",3)+IF(F69="X",4)+IF(G69="X",5)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" ht="20.25" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" ht="21" x14ac:dyDescent="0.3">
       <c r="A70" s="25"/>
       <c r="B70" s="32"/>
       <c r="C70" s="29"/>
     </row>
-    <row r="71" spans="1:9" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" ht="21" x14ac:dyDescent="0.3">
       <c r="A71" s="25"/>
       <c r="B71" s="32"/>
       <c r="C71" s="29"/>
     </row>
-    <row r="72" spans="1:9" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" ht="21" x14ac:dyDescent="0.3">
       <c r="A72" s="29"/>
       <c r="B72" s="25"/>
       <c r="C72" s="36"/>
@@ -5282,93 +5609,93 @@
       <c r="H72" s="21"/>
       <c r="I72" s="21"/>
     </row>
-    <row r="73" spans="1:9" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" ht="21" x14ac:dyDescent="0.3">
       <c r="A73" s="25"/>
       <c r="B73" s="33"/>
       <c r="C73" s="29"/>
     </row>
-    <row r="74" spans="1:9" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9" ht="21" x14ac:dyDescent="0.3">
       <c r="A74" s="25"/>
       <c r="B74" s="33"/>
       <c r="C74" s="29"/>
     </row>
-    <row r="75" spans="1:9" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" ht="21" x14ac:dyDescent="0.3">
       <c r="A75" s="25"/>
       <c r="B75" s="32"/>
       <c r="C75" s="29"/>
     </row>
-    <row r="76" spans="1:9" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9" ht="21" x14ac:dyDescent="0.3">
       <c r="A76" s="25"/>
       <c r="B76" s="32"/>
       <c r="C76" s="29"/>
     </row>
-    <row r="77" spans="1:9" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9" ht="21" x14ac:dyDescent="0.3">
       <c r="A77" s="25"/>
       <c r="B77" s="25"/>
       <c r="C77" s="29"/>
     </row>
-    <row r="78" spans="1:9" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9" ht="21" x14ac:dyDescent="0.3">
       <c r="A78" s="25"/>
       <c r="B78" s="32"/>
       <c r="C78" s="29"/>
     </row>
-    <row r="79" spans="1:9" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9" ht="21" x14ac:dyDescent="0.3">
       <c r="A79" s="25"/>
       <c r="B79" s="34"/>
       <c r="C79" s="29"/>
     </row>
-    <row r="80" spans="1:9" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9" ht="21" x14ac:dyDescent="0.3">
       <c r="A80" s="25"/>
       <c r="B80" s="32"/>
       <c r="C80" s="29"/>
     </row>
-    <row r="81" spans="1:4" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" ht="21" x14ac:dyDescent="0.3">
       <c r="A81" s="25"/>
       <c r="B81" s="32"/>
       <c r="C81" s="29"/>
     </row>
-    <row r="82" spans="1:4" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" ht="21" x14ac:dyDescent="0.3">
       <c r="A82" s="25"/>
       <c r="B82" s="25"/>
       <c r="C82" s="29"/>
     </row>
-    <row r="83" spans="1:4" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" ht="21" x14ac:dyDescent="0.3">
       <c r="A83" s="25"/>
       <c r="B83" s="35"/>
       <c r="C83" s="29"/>
     </row>
-    <row r="84" spans="1:4" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" ht="21" x14ac:dyDescent="0.3">
       <c r="A84" s="25"/>
       <c r="B84" s="32"/>
       <c r="C84" s="37"/>
     </row>
-    <row r="85" spans="1:4" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" ht="21" x14ac:dyDescent="0.3">
       <c r="A85" s="25"/>
       <c r="B85" s="32"/>
       <c r="C85" s="29"/>
     </row>
-    <row r="86" spans="1:4" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" ht="21" x14ac:dyDescent="0.3">
       <c r="A86" s="25"/>
       <c r="B86" s="25"/>
       <c r="C86" s="29"/>
       <c r="D86" s="17"/>
     </row>
-    <row r="87" spans="1:4" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4" ht="21" x14ac:dyDescent="0.3">
       <c r="A87" s="25"/>
       <c r="B87" s="32"/>
       <c r="C87" s="29"/>
     </row>
-    <row r="88" spans="1:4" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4" ht="21" x14ac:dyDescent="0.3">
       <c r="A88" s="25"/>
       <c r="B88" s="32"/>
       <c r="C88" s="29"/>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89" s="29"/>
       <c r="B89" s="29"/>
       <c r="C89" s="29"/>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90" s="29"/>
       <c r="B90" s="29"/>
       <c r="C90" s="29"/>
@@ -5382,22 +5709,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:J70"/>
   <sheetViews>
-    <sheetView topLeftCell="A41" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
-      <selection activeCell="H65" sqref="H65"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="75" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="24" customWidth="1"/>
-    <col min="2" max="2" width="70.125" customWidth="1"/>
-    <col min="4" max="4" width="13.125" customWidth="1"/>
+    <col min="2" max="2" width="70.09765625" customWidth="1"/>
+    <col min="4" max="4" width="13.09765625" customWidth="1"/>
     <col min="7" max="7" width="10.5" customWidth="1"/>
-    <col min="8" max="8" width="18.875" customWidth="1"/>
-    <col min="9" max="9" width="48.25" customWidth="1"/>
-    <col min="10" max="10" width="43.625" customWidth="1"/>
+    <col min="8" max="8" width="18.8984375" customWidth="1"/>
+    <col min="9" max="9" width="48.19921875" customWidth="1"/>
+    <col min="10" max="10" width="43.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="41.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="42.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B1" s="4"/>
       <c r="C1" s="4" t="s">
         <v>25</v>
@@ -5419,7 +5746,7 @@
       </c>
       <c r="I1" s="9"/>
     </row>
-    <row r="2" spans="1:10" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>20</v>
       </c>
@@ -5428,14 +5755,14 @@
       </c>
       <c r="H2" s="10">
         <f>AVERAGE(Quest.Utente1!H2,Quest.Utente2!H2,Quest.Utente3!H2,Quest.Utente4!H2)</f>
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="I2" s="10" t="s">
         <v>46</v>
       </c>
       <c r="J2" s="22"/>
     </row>
-    <row r="3" spans="1:10" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>21</v>
       </c>
@@ -5444,13 +5771,13 @@
       </c>
       <c r="H3" s="10">
         <f>AVERAGE(Quest.Utente1!H3,Quest.Utente2!H3,Quest.Utente3!H3,Quest.Utente4!H3)</f>
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="I3" s="10" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
         <v>22</v>
       </c>
@@ -5459,17 +5786,17 @@
       </c>
       <c r="H4" s="10">
         <f>AVERAGE(Quest.Utente1!H4,Quest.Utente2!H4,Quest.Utente3!H4,Quest.Utente4!H4)</f>
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="I4" s="10" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="5"/>
       <c r="H5" s="14">
         <f>AVERAGE(H2:H4)</f>
-        <v>4</v>
+        <v>2.75</v>
       </c>
       <c r="I5" s="10" t="s">
         <v>57</v>
@@ -5478,7 +5805,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
         <v>31</v>
       </c>
@@ -5487,10 +5814,10 @@
       </c>
       <c r="H6" s="10">
         <f>AVERAGE(Quest.Utente1!H8,Quest.Utente2!H6,Quest.Utente3!H8,Quest.Utente4!H8)</f>
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
         <v>32</v>
       </c>
@@ -5499,10 +5826,10 @@
       </c>
       <c r="H7" s="10">
         <f>AVERAGE(Quest.Utente1!H9,Quest.Utente2!H7,Quest.Utente3!H9,Quest.Utente4!H9)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
         <v>33</v>
       </c>
@@ -5511,14 +5838,14 @@
       </c>
       <c r="H8" s="10">
         <f>AVERAGE(Quest.Utente1!H10,Quest.Utente2!H8,Quest.Utente3!H10,Quest.Utente4!H10)</f>
-        <v>1.25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="5"/>
       <c r="H9" s="14">
         <f>AVERAGE(H6:H8)</f>
-        <v>1.25</v>
+        <v>3.3333333333333335</v>
       </c>
       <c r="I9" s="10" t="s">
         <v>57</v>
@@ -5527,7 +5854,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="4" t="s">
         <v>35</v>
       </c>
@@ -5536,10 +5863,10 @@
       </c>
       <c r="H10" s="10">
         <f>AVERAGE(Quest.Utente1!H10,Quest.Utente2!H10,Quest.Utente3!H10,Quest.Utente4!H10)</f>
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
         <v>36</v>
       </c>
@@ -5548,14 +5875,14 @@
       </c>
       <c r="H11" s="10">
         <f>AVERAGE(Quest.Utente1!H11,Quest.Utente2!H11,Quest.Utente3!H11,Quest.Utente4!H11)</f>
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="5"/>
       <c r="H12" s="14">
         <f>AVERAGE(H10,H11)</f>
-        <v>0.75</v>
+        <v>3.5</v>
       </c>
       <c r="I12" s="10" t="s">
         <v>57</v>
@@ -5564,7 +5891,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="4" t="s">
         <v>38</v>
       </c>
@@ -5573,11 +5900,11 @@
       </c>
       <c r="H13" s="10">
         <f>AVERAGE(Quest.Utente1!H14,Quest.Utente2!H14,Quest.Utente3!H14,Quest.Utente4!H14)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I13" s="6"/>
     </row>
-    <row r="14" spans="1:10" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="5" t="s">
         <v>38</v>
       </c>
@@ -5586,17 +5913,17 @@
       </c>
       <c r="H14" s="10">
         <f>AVERAGE(Quest.Utente1!H18,Quest.Utente2!H14,Quest.Utente3!H18,Quest.Utente4!H18)</f>
-        <v>1.25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+        <v>3.25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="4" t="s">
         <v>24</v>
       </c>
       <c r="B15" s="7"/>
       <c r="H15" s="14">
         <f>AVERAGE(H13,H14)</f>
-        <v>1.125</v>
+        <v>3.125</v>
       </c>
       <c r="I15" s="10" t="s">
         <v>57</v>
@@ -5605,7 +5932,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="4" t="s">
         <v>17</v>
       </c>
@@ -5614,10 +5941,10 @@
       </c>
       <c r="H16" s="10">
         <f>AVERAGE(Quest.Utente1!H16,Quest.Utente2!H16,Quest.Utente3!H16,Quest.Utente4!H16)</f>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+        <v>2.75</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="5" t="s">
         <v>18</v>
       </c>
@@ -5626,10 +5953,10 @@
       </c>
       <c r="H17" s="10">
         <f>AVERAGE(Quest.Utente1!H17,Quest.Utente2!H17,Quest.Utente3!H17,Quest.Utente4!H17)</f>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+        <v>2.75</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="4" t="s">
         <v>19</v>
       </c>
@@ -5638,15 +5965,15 @@
       </c>
       <c r="H18" s="10">
         <f>AVERAGE(Quest.Utente1!H18,Quest.Utente2!H18,Quest.Utente3!H18,Quest.Utente4!H18)</f>
-        <v>1.25</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+        <v>2.75</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="4"/>
       <c r="B19" s="7"/>
       <c r="H19" s="14">
         <f>AVERAGE(H16:H18)</f>
-        <v>0.75</v>
+        <v>2.75</v>
       </c>
       <c r="I19" s="10" t="s">
         <v>57</v>
@@ -5655,7 +5982,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="4" t="s">
         <v>39</v>
       </c>
@@ -5664,10 +5991,10 @@
       </c>
       <c r="H20" s="10">
         <f>AVERAGE(Quest.Utente1!H20,Quest.Utente2!H20,Quest.Utente3!H20,Quest.Utente4!H20)</f>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="5" t="s">
         <v>40</v>
       </c>
@@ -5676,16 +6003,16 @@
       </c>
       <c r="H21" s="24">
         <f>AVERAGE(Quest.Utente1!H21,Quest.Utente2!H21,Quest.Utente3!H21,Quest.Utente4!H21)</f>
-        <v>0.5</v>
+        <v>2.75</v>
       </c>
       <c r="J21" s="25"/>
     </row>
-    <row r="22" spans="1:10" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="5"/>
       <c r="B22" s="19"/>
       <c r="H22" s="14">
         <f>AVERAGE(H20:H21)</f>
-        <v>0.5</v>
+        <v>2.625</v>
       </c>
       <c r="I22" s="10" t="s">
         <v>57</v>
@@ -5694,7 +6021,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="4" t="s">
         <v>41</v>
       </c>
@@ -5703,15 +6030,15 @@
       </c>
       <c r="H23" s="10">
         <f>AVERAGE(Quest.Utente1!H23,Quest.Utente2!H23,Quest.Utente3!H23,Quest.Utente4!H23)</f>
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>2.75</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="4"/>
       <c r="B24" s="7"/>
       <c r="H24" s="14">
         <f>H23</f>
-        <v>0.75</v>
+        <v>2.75</v>
       </c>
       <c r="I24" s="10" t="s">
         <v>57</v>
@@ -5720,7 +6047,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="4" t="s">
         <v>42</v>
       </c>
@@ -5729,10 +6056,10 @@
       </c>
       <c r="H25" s="10">
         <f>AVERAGE(Quest.Utente1!H25,Quest.Utente2!H25,Quest.Utente3!H25,Quest.Utente4!H25)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+        <v>2.75</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="5" t="s">
         <v>42</v>
       </c>
@@ -5741,16 +6068,16 @@
       </c>
       <c r="H26" s="24">
         <f>AVERAGE(Quest.Utente1!H26,Quest.Utente2!H26,Quest.Utente3!H26,Quest.Utente4!H26)</f>
-        <v>0.75</v>
+        <v>2</v>
       </c>
       <c r="J26" s="25"/>
     </row>
-    <row r="27" spans="1:10" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="5"/>
       <c r="B27" s="7"/>
       <c r="H27" s="26">
         <f>AVERAGE(H25:H26)</f>
-        <v>0.875</v>
+        <v>2.375</v>
       </c>
       <c r="I27" s="10" t="s">
         <v>57</v>
@@ -5759,7 +6086,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="4" t="s">
         <v>58</v>
       </c>
@@ -5768,10 +6095,10 @@
       </c>
       <c r="H28" s="10">
         <f>AVERAGE(Quest.Utente1!H28,Quest.Utente2!H28,Quest.Utente3!H28,Quest.Utente4!H28)</f>
-        <v>1.25</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+        <v>3.25</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="5" t="s">
         <v>59</v>
       </c>
@@ -5780,10 +6107,10 @@
       </c>
       <c r="H29" s="10">
         <f>AVERAGE(Quest.Utente1!H29,Quest.Utente2!H29,Quest.Utente3!H29,Quest.Utente4!H29)</f>
-        <v>1.25</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+        <v>3.75</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="4" t="s">
         <v>60</v>
       </c>
@@ -5792,16 +6119,16 @@
       </c>
       <c r="H30" s="24">
         <f>AVERAGE(Quest.Utente1!H29,Quest.Utente2!H29,Quest.Utente3!H29,Quest.Utente4!H29)</f>
-        <v>1.25</v>
+        <v>3.75</v>
       </c>
       <c r="J30" s="25"/>
     </row>
-    <row r="31" spans="1:10" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="4"/>
       <c r="B31" s="7"/>
       <c r="H31" s="26">
         <f>AVERAGE(H28:H30)</f>
-        <v>1.25</v>
+        <v>3.5833333333333335</v>
       </c>
       <c r="I31" s="10" t="s">
         <v>57</v>
@@ -5810,7 +6137,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="4" t="s">
         <v>61</v>
       </c>
@@ -5819,10 +6146,10 @@
       </c>
       <c r="H32" s="10">
         <f>AVERAGE(Quest.Utente1!H32,Quest.Utente2!H32,Quest.Utente3!H32,Quest.Utente4!H32)</f>
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="5" t="s">
         <v>62</v>
       </c>
@@ -5831,16 +6158,16 @@
       </c>
       <c r="H33" s="24">
         <f>AVERAGE(Quest.Utente1!H33,Quest.Utente2!H33,Quest.Utente3!H33,Quest.Utente4!H33)</f>
-        <v>1.25</v>
+        <v>3.5</v>
       </c>
       <c r="J33" s="25"/>
     </row>
-    <row r="34" spans="1:10" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="5"/>
       <c r="B34" s="18"/>
       <c r="H34" s="26">
         <f>AVERAGE(H32:H33)</f>
-        <v>1</v>
+        <v>2.875</v>
       </c>
       <c r="I34" s="10" t="s">
         <v>57</v>
@@ -5849,7 +6176,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="35" spans="1:10" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="5" t="s">
         <v>63</v>
       </c>
@@ -5858,15 +6185,15 @@
       </c>
       <c r="H35">
         <f>AVERAGE(Quest.Utente1!H35,Quest.Utente2!H35,Quest.Utente3!H35,Quest.Utente4!H35)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+        <v>2.75</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="5"/>
       <c r="B36" s="7"/>
       <c r="H36" s="26">
         <f>H35</f>
-        <v>1</v>
+        <v>2.75</v>
       </c>
       <c r="I36" s="10" t="s">
         <v>57</v>
@@ -5875,7 +6202,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="37" spans="1:10" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="4" t="s">
         <v>64</v>
       </c>
@@ -5884,15 +6211,15 @@
       </c>
       <c r="H37">
         <f>AVERAGE(Quest.Utente1!H37,Quest.Utente2!H37,Quest.Utente3!H37,Quest.Utente4!H37)</f>
-        <v>1.25</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="4"/>
       <c r="B38" s="7"/>
       <c r="H38" s="26">
         <f>H37</f>
-        <v>1.25</v>
+        <v>3</v>
       </c>
       <c r="I38" s="10" t="s">
         <v>57</v>
@@ -5901,7 +6228,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:10" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="4" t="s">
         <v>65</v>
       </c>
@@ -5910,10 +6237,10 @@
       </c>
       <c r="H39">
         <f>AVERAGE(Quest.Utente1!H39,Quest.Utente2!H39,Quest.Utente3!H39,Quest.Utente4!H39)</f>
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+        <v>3.75</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="4" t="s">
         <v>66</v>
       </c>
@@ -5922,15 +6249,15 @@
       </c>
       <c r="H40">
         <f>AVERAGE(Quest.Utente1!H40,Quest.Utente2!H40,Quest.Utente3!H40,Quest.Utente4!H40)</f>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="4"/>
       <c r="B41" s="7"/>
       <c r="H41" s="26">
         <f>AVERAGE(H39:H40)</f>
-        <v>0.625</v>
+        <v>2.75</v>
       </c>
       <c r="I41" s="10" t="s">
         <v>57</v>
@@ -5939,7 +6266,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="42" spans="1:10" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:10" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="4" t="s">
         <v>67</v>
       </c>
@@ -5948,10 +6275,10 @@
       </c>
       <c r="H42">
         <f>AVERAGE(Quest.Utente1!H42,Quest.Utente2!H42,Quest.Utente3!H42,Quest.Utente4!H42)</f>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+        <v>3.25</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="5" t="s">
         <v>68</v>
       </c>
@@ -5960,15 +6287,15 @@
       </c>
       <c r="H43">
         <f>AVERAGE(Quest.Utente1!H43,Quest.Utente2!H43,Quest.Utente3!H43,Quest.Utente4!H43)</f>
-        <v>1.25</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+        <v>2.75</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="5"/>
       <c r="B44" s="19"/>
       <c r="H44" s="26">
         <f>AVERAGE(H42:H43)</f>
-        <v>0.875</v>
+        <v>3</v>
       </c>
       <c r="I44" s="10" t="s">
         <v>57</v>
@@ -5977,7 +6304,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="45" spans="1:10" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:10" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="4" t="s">
         <v>69</v>
       </c>
@@ -5986,15 +6313,15 @@
       </c>
       <c r="H45">
         <f>AVERAGE(Quest.Utente1!H45,Quest.Utente2!H45,Quest.Utente3!H45,Quest.Utente4!H45)</f>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="4"/>
       <c r="B46" s="19"/>
       <c r="H46" s="26">
         <f>H45</f>
-        <v>0.5</v>
+        <v>2.25</v>
       </c>
       <c r="I46" s="10" t="s">
         <v>57</v>
@@ -6003,7 +6330,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="47" spans="1:10" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:10" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="4" t="s">
         <v>70</v>
       </c>
@@ -6012,10 +6339,10 @@
       </c>
       <c r="H47">
         <f>AVERAGE(Quest.Utente1!H47,Quest.Utente2!H47,Quest.Utente3!H47,Quest.Utente4!H47)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="5" t="s">
         <v>70</v>
       </c>
@@ -6023,16 +6350,16 @@
         <v>111</v>
       </c>
       <c r="H48" s="24">
-        <f ca="1">AVERAGE(Quest.Utente1!H48,Quest.Utente2!H48,Quest.Utente3!H48,Quest.Utente4!H48)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+        <f>AVERAGE(Quest.Utente1!H48,Quest.Utente2!H48,Quest.Utente3!H48,Quest.Utente4!H48)</f>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="5"/>
       <c r="B49" s="7"/>
       <c r="H49" s="26">
-        <f ca="1">AVERAGE(H47:H48)</f>
-        <v>0</v>
+        <f>AVERAGE(H47:H48)</f>
+        <v>2.75</v>
       </c>
       <c r="I49" s="10" t="s">
         <v>57</v>
@@ -6041,7 +6368,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="50" spans="1:10" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:10" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="4" t="s">
         <v>71</v>
       </c>
@@ -6050,10 +6377,10 @@
       </c>
       <c r="H50">
         <f>AVERAGE(Quest.Utente1!H50,Quest.Utente2!H50,Quest.Utente3!H50,Quest.Utente4!H50)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="27" t="s">
         <v>72</v>
       </c>
@@ -6062,15 +6389,15 @@
       </c>
       <c r="H51">
         <f>AVERAGE(Quest.Utente1!H51,Quest.Utente2!H51,Quest.Utente3!H51,Quest.Utente4!H51)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" s="29" customFormat="1" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" s="29" customFormat="1" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="25"/>
       <c r="B52" s="25"/>
       <c r="H52" s="26">
         <f>AVERAGE(H50:H51)</f>
-        <v>1</v>
+        <v>1.875</v>
       </c>
       <c r="I52" s="10" t="s">
         <v>57</v>
@@ -6079,7 +6406,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="53" spans="1:10" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:10" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="28" t="s">
         <v>73</v>
       </c>
@@ -6088,10 +6415,10 @@
       </c>
       <c r="H53">
         <f>AVERAGE(Quest.Utente1!H53,Quest.Utente2!H53,Quest.Utente3!H53,Quest.Utente4!H53)</f>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" s="30" t="s">
         <v>74</v>
       </c>
@@ -6100,15 +6427,15 @@
       </c>
       <c r="H54">
         <f>AVERAGE(Quest.Utente1!H54,Quest.Utente2!H54,Quest.Utente3!H54,Quest.Utente4!H54)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" s="29" customFormat="1" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+        <v>2.75</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" s="29" customFormat="1" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="25"/>
       <c r="B55" s="25"/>
       <c r="H55" s="26">
         <f>AVERAGE(H53:H54)</f>
-        <v>0.75</v>
+        <v>2.5</v>
       </c>
       <c r="I55" s="10" t="s">
         <v>57</v>
@@ -6117,7 +6444,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="56" spans="1:10" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:10" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" s="28" t="s">
         <v>75</v>
       </c>
@@ -6126,10 +6453,10 @@
       </c>
       <c r="H56">
         <f>AVERAGE(Quest.Utente1!H56,Quest.Utente2!H56,Quest.Utente3!H56,Quest.Utente4!H56)</f>
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A57" s="27" t="s">
         <v>76</v>
       </c>
@@ -6138,15 +6465,15 @@
       </c>
       <c r="H57">
         <f>AVERAGE(Quest.Utente1!H57,Quest.Utente2!H57,Quest.Utente3!H57,Quest.Utente4!H57)</f>
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" s="29" customFormat="1" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+        <v>2.75</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" s="29" customFormat="1" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" s="25"/>
       <c r="B58" s="25"/>
       <c r="H58" s="26">
         <f>AVERAGE(H56:H57)</f>
-        <v>0.5</v>
+        <v>2.25</v>
       </c>
       <c r="I58" s="10" t="s">
         <v>57</v>
@@ -6155,7 +6482,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="59" spans="1:10" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:10" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A59" s="9" t="s">
         <v>129</v>
       </c>
@@ -6164,14 +6491,14 @@
       </c>
       <c r="H59">
         <f>AVERAGE(Quest.Utente1!H59,Quest.Utente2!H59,Quest.Utente3!H59,Quest.Utente4!H59)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" s="29" customFormat="1" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+        <v>3.75</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" s="29" customFormat="1" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B60" s="25"/>
       <c r="H60" s="26">
         <f>H59</f>
-        <v>1</v>
+        <v>3.75</v>
       </c>
       <c r="I60" s="10" t="s">
         <v>57</v>
@@ -6180,7 +6507,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="61" spans="1:10" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:10" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="28" t="s">
         <v>117</v>
       </c>
@@ -6189,10 +6516,10 @@
       </c>
       <c r="H61">
         <f>AVERAGE(Quest.Utente1!H61,Quest.Utente2!H61,Quest.Utente3!H61,Quest.Utente4!H61)</f>
-        <v>1.25</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+        <v>3.25</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" s="27" t="s">
         <v>118</v>
       </c>
@@ -6201,15 +6528,15 @@
       </c>
       <c r="H62" s="24">
         <f>AVERAGE(Quest.Utente1!H62,Quest.Utente2!H62,Quest.Utente3!H62,Quest.Utente4!H62)</f>
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10" s="29" customFormat="1" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" s="29" customFormat="1" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="25"/>
       <c r="B63" s="25"/>
       <c r="H63" s="26">
         <f>AVERAGE(H61:H62)</f>
-        <v>1</v>
+        <v>2.875</v>
       </c>
       <c r="I63" s="10" t="s">
         <v>57</v>
@@ -6218,7 +6545,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="64" spans="1:10" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:10" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A64" s="9" t="s">
         <v>119</v>
       </c>
@@ -6227,15 +6554,15 @@
       </c>
       <c r="H64" s="24">
         <f>AVERAGE(Quest.Utente1!H64,Quest.Utente2!H64,Quest.Utente3!H64,Quest.Utente4!H64)</f>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10" s="29" customFormat="1" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" s="29" customFormat="1" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A65" s="25"/>
       <c r="B65" s="25"/>
       <c r="H65" s="26">
         <f>H64</f>
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="I65" s="10" t="s">
         <v>57</v>
@@ -6244,7 +6571,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="66" spans="1:10" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:10" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A66" s="9" t="s">
         <v>120</v>
       </c>
@@ -6253,21 +6580,21 @@
       </c>
       <c r="H66" s="24">
         <f>AVERAGE(Quest.Utente1!H66,Quest.Utente2!H66,Quest.Utente3!H66,Quest.Utente4!H66)</f>
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10" s="29" customFormat="1" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" s="29" customFormat="1" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A67" s="25"/>
       <c r="B67" s="25"/>
       <c r="H67" s="26">
         <f>H66</f>
-        <v>0.75</v>
+        <v>3.5</v>
       </c>
       <c r="J67" s="4" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="68" spans="1:10" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:10" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A68" s="28" t="s">
         <v>116</v>
       </c>
@@ -6276,10 +6603,10 @@
       </c>
       <c r="H68">
         <f>AVERAGE(Quest.Utente1!H68,Quest.Utente2!H68,Quest.Utente3!H68,Quest.Utente4!H68)</f>
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A69" s="4" t="s">
         <v>130</v>
       </c>
@@ -6288,15 +6615,15 @@
       </c>
       <c r="H69" s="24">
         <f>AVERAGE(Quest.Utente1!H69,Quest.Utente2!H69,Quest.Utente3!H69,Quest.Utente4!H69)</f>
-        <v>0.75</v>
+        <v>3.5</v>
       </c>
       <c r="I69" s="31"/>
       <c r="J69" s="25"/>
     </row>
-    <row r="70" spans="1:10" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:10" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="H70" s="26">
         <f>AVERAGE(H68:H69)</f>
-        <v>0.75</v>
+        <v>2.875</v>
       </c>
       <c r="I70" s="31" t="s">
         <v>57</v>
@@ -6316,12 +6643,12 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="11" t="s">
         <v>47</v>
       </c>
@@ -6338,133 +6665,134 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="B2" s="16">
+      <c r="B2" s="42">
         <f>MEDIE!H5</f>
-        <v>4</v>
+        <v>2.75</v>
       </c>
       <c r="C2" s="16">
         <f>MEDIE!H9</f>
-        <v>1.25</v>
-      </c>
-      <c r="D2" s="15">
+        <v>3.3333333333333335</v>
+      </c>
+      <c r="D2" s="44">
         <f>MEDIE!H12</f>
-        <v>0.75</v>
+        <v>3.5</v>
       </c>
       <c r="E2" s="15">
         <f>MEDIE!H21</f>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+        <v>2.75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="B3" s="39">
+      <c r="B3" s="41">
         <f>MEDIE!H18</f>
-        <v>1.25</v>
+        <v>2.75</v>
       </c>
       <c r="C3" s="40">
         <f>MEDIE!H22</f>
-        <v>0.5</v>
-      </c>
-      <c r="D3" s="42">
+        <v>2.625</v>
+      </c>
+      <c r="D3" s="40">
         <f>MEDIE!H24</f>
-        <v>0.75</v>
-      </c>
-      <c r="E3" s="43">
+        <v>2.75</v>
+      </c>
+      <c r="E3" s="41">
         <f>MEDIE!H26</f>
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="12" t="s">
         <v>54</v>
       </c>
       <c r="B4" s="16">
         <f>MEDIE!H31</f>
-        <v>1.25</v>
-      </c>
-      <c r="C4" s="16">
+        <v>3.5833333333333335</v>
+      </c>
+      <c r="C4" s="42">
         <f>MEDIE!H34</f>
-        <v>1</v>
+        <v>2.875</v>
       </c>
       <c r="D4" s="44">
         <f>MEDIE!H37</f>
-        <v>1.25</v>
+        <v>3</v>
       </c>
       <c r="E4" s="44">
         <f>MEDIE!H38</f>
-        <v>1.25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="13" t="s">
         <v>55</v>
       </c>
       <c r="B5" s="41">
         <f>MEDIE!H41</f>
-        <v>0.625</v>
-      </c>
-      <c r="C5" s="41">
+        <v>2.75</v>
+      </c>
+      <c r="C5" s="39">
         <f>MEDIE!H44</f>
-        <v>0.875</v>
-      </c>
-      <c r="D5" s="42">
+        <v>3</v>
+      </c>
+      <c r="D5" s="40">
         <f>MEDIE!H46</f>
-        <v>0.5</v>
-      </c>
-      <c r="E5" s="42">
-        <f ca="1">MEDIE!H49</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+        <v>2.25</v>
+      </c>
+      <c r="E5" s="40">
+        <f>MEDIE!H49</f>
+        <v>2.75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="B6" s="16">
+      <c r="B6" s="42">
         <f>MEDIE!H52</f>
-        <v>1</v>
-      </c>
-      <c r="C6" s="16">
+        <v>1.875</v>
+      </c>
+      <c r="C6" s="42">
         <f>MEDIE!H55</f>
-        <v>0.75</v>
-      </c>
-      <c r="D6" s="44">
+        <v>2.5</v>
+      </c>
+      <c r="D6" s="42">
         <f>MEDIE!H58</f>
-        <v>0.5</v>
+        <v>2.25</v>
       </c>
       <c r="E6" s="44">
         <f>MEDIE!H60</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+        <v>3.75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="38" t="s">
         <v>131</v>
       </c>
       <c r="B7" s="41">
         <f>MEDIE!H63</f>
-        <v>1</v>
-      </c>
-      <c r="C7" s="41">
+        <v>2.875</v>
+      </c>
+      <c r="C7" s="39">
         <f>MEDIE!H65</f>
-        <v>0.5</v>
-      </c>
-      <c r="D7" s="42">
+        <v>3</v>
+      </c>
+      <c r="D7" s="45">
         <f>MEDIE!H67</f>
-        <v>0.75</v>
-      </c>
-      <c r="E7" s="42">
+        <v>3.5</v>
+      </c>
+      <c r="E7" s="45">
         <f>MEDIE!H69</f>
-        <v>0.75</v>
+        <v>3.5</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>